--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C37DCB3-6F96-1044-8162-42CEB8449E06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA0DC3-006D-5B4D-BA2C-91C2D08D2334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="235">
-  <si>
-    <t>Find marriage date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="272">
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Compare marriage date to birth date</t>
+    <t>Remaining Stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -55,170 +175,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(at)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -790,6 +754,144 @@
   </si>
   <si>
     <t>Wisnewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renjie </t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzhou10 </t>
+  </si>
+  <si>
+    <t>rkumar5@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshak10 </t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>T32.02</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1040,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -975,6 +1077,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2133,7 +2242,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2146,78 +2255,112 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2230,6 +2373,8 @@
     <hyperlink ref="D4" r:id="rId2" xr:uid="{6F98113B-6AC8-DF4B-98E0-88BB35A8C958}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{2B7C40D3-DD7A-244D-BAF7-2B2ECAD606C4}"/>
     <hyperlink ref="E5" r:id="rId4" display="mwisnews@stevens.edu" xr:uid="{4DEA9253-6F2D-394F-A76B-75FA36B92079}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{1078927A-6575-4C48-8E75-9901D1CED149}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{2D278517-212B-DA4D-AC09-E7E6EBD6FD6A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2255,19 +2400,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2275,16 +2420,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2292,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2309,13 +2454,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2345,60 +2490,60 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2414,7 +2559,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2439,7 +2584,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2464,7 +2609,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2489,7 +2634,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2539,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2600,19 +2745,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2628,63 +2773,63 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2702,163 +2847,594 @@
         <v>40444</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M9" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="Q9" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
+      <c r="I23" s="7"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="K24" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="I28" s="7"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="K29" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="I33" s="7"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="20"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="20"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="20"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="20"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="5"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="52" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B54" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2880,31 +3456,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2926,31 +3502,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2971,31 +3547,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3008,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3020,493 +3596,493 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\SSW_555_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA0DC3-006D-5B4D-BA2C-91C2D08D2334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +22,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -892,12 +891,27 @@
   </si>
   <si>
     <t>T32.02</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1193,7 +1207,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1264,7 +1278,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,19 +1341,27 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>2/11/2019 (Start)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>2/25/2019 (Sprint 1)</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="2">
+                  <c:v>3/11/2019 (Sprint 2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/25/2019 (Sprint 3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4/8/2019 (Sprint 4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1348,10 +1370,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,23 +1395,24 @@
         <c:axId val="1158123744"/>
         <c:axId val="1158126064"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1158123744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1158126064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1158126064"/>
         <c:scaling>
@@ -2238,22 +2258,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2270,7 +2290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -2287,7 +2307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -2304,7 +2324,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -2321,7 +2341,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>248</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>251</v>
       </c>
@@ -2355,7 +2375,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
@@ -2369,12 +2389,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{56CB1148-CF17-C841-9FEB-177FC95DB3F5}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6F98113B-6AC8-DF4B-98E0-88BB35A8C958}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{2B7C40D3-DD7A-244D-BAF7-2B2ECAD606C4}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mwisnews@stevens.edu" xr:uid="{4DEA9253-6F2D-394F-A76B-75FA36B92079}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{1078927A-6575-4C48-8E75-9901D1CED149}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{2D278517-212B-DA4D-AC09-E7E6EBD6FD6A}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4" display="mwisnews@stevens.edu"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2382,23 +2402,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="19.4609375" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -2415,7 +2435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2471,54 +2491,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="7"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>174</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -2557,7 +2577,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2582,7 +2602,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>177</v>
       </c>
@@ -2607,7 +2627,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>178</v>
       </c>
@@ -2632,7 +2652,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>179</v>
       </c>
@@ -2665,24 +2685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2702,37 +2722,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>40442</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>40455</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <f>B2-B3</f>
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="9" t="e">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2744,34 +2766,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="35.84375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.15234375" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4609375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2818,7 +2840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
@@ -2865,7 +2887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>240</v>
       </c>
@@ -2879,7 +2901,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>241</v>
       </c>
@@ -2893,7 +2915,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>242</v>
       </c>
@@ -2907,7 +2929,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>243</v>
       </c>
@@ -2921,7 +2943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>244</v>
       </c>
@@ -2935,14 +2957,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>226</v>
       </c>
@@ -2980,7 +3002,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>261</v>
       </c>
@@ -2994,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>262</v>
       </c>
@@ -3008,7 +3030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>263</v>
       </c>
@@ -3022,12 +3044,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="20"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -3042,7 +3064,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3055,7 +3077,7 @@
       <c r="I15" s="7"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -3068,7 +3090,7 @@
       <c r="I16" s="7"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -3081,13 +3103,13 @@
       <c r="I17" s="7"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="20"/>
       <c r="I18" s="7"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>123</v>
       </c>
@@ -3102,7 +3124,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>258</v>
       </c>
@@ -3115,7 +3137,7 @@
       <c r="I20" s="7"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>259</v>
       </c>
@@ -3128,7 +3150,7 @@
       <c r="I21" s="7"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>260</v>
       </c>
@@ -3141,13 +3163,13 @@
       <c r="I22" s="7"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
       <c r="I23" s="7"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>124</v>
       </c>
@@ -3162,7 +3184,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>165</v>
       </c>
@@ -3175,7 +3197,7 @@
       <c r="I25" s="7"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>166</v>
       </c>
@@ -3188,7 +3210,7 @@
       <c r="I26" s="7"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>167</v>
       </c>
@@ -3201,13 +3223,13 @@
       <c r="I27" s="7"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="20"/>
       <c r="I28" s="7"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -3222,7 +3244,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>231</v>
       </c>
@@ -3235,7 +3257,7 @@
       <c r="I30" s="7"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>232</v>
       </c>
@@ -3248,7 +3270,7 @@
       <c r="I31" s="7"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>233</v>
       </c>
@@ -3261,14 +3283,14 @@
       <c r="I32" s="7"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="I33" s="7"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>227</v>
       </c>
@@ -3280,7 +3302,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>264</v>
       </c>
@@ -3292,7 +3314,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>265</v>
       </c>
@@ -3304,7 +3326,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>266</v>
       </c>
@@ -3316,13 +3338,13 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>151</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>270</v>
       </c>
@@ -3345,7 +3367,7 @@
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>271</v>
       </c>
@@ -3357,13 +3379,13 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="4"/>
       <c r="C42" s="20"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>135</v>
       </c>
@@ -3375,19 +3397,19 @@
       </c>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="20"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="20"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>148</v>
       </c>
@@ -3397,42 +3419,42 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="20"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -3445,16 +3467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3491,16 +3513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3536,16 +3558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3581,20 +3603,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -3605,7 +3627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3619,7 +3641,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3633,7 +3655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3647,7 +3669,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3658,7 +3680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3669,7 +3691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3683,7 +3705,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -3697,7 +3719,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3708,7 +3730,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -3719,7 +3741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -3730,7 +3752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -3752,7 +3774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -3763,7 +3785,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3774,7 +3796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3785,7 +3807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3796,7 +3818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -3807,7 +3829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -3818,7 +3840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -3840,7 +3862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -3851,7 +3873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -3862,7 +3884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -3873,7 +3895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -3884,7 +3906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -3895,7 +3917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3906,7 +3928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -3917,7 +3939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3939,7 +3961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -3950,7 +3972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -3961,7 +3983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -3975,7 +3997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3986,7 +4008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -3997,7 +4019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -4008,7 +4030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -4019,7 +4041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -4030,7 +4052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4041,7 +4063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -4052,7 +4074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -4074,7 +4096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\SSW_555_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Documents\Junior Year\Spring 2019\Agile Methods for Software Dev\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="279">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,18 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,15 +181,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -734,9 +709,6 @@
     <t>mwisnews</t>
   </si>
   <si>
-    <t>SSW</t>
-  </si>
-  <si>
     <t>CQ</t>
   </si>
   <si>
@@ -906,6 +878,36 @@
   </si>
   <si>
     <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>Store name of deceased</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
   </si>
 </sst>
 </file>
@@ -2261,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2287,100 +2289,100 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2403,84 +2405,626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.15234375" customWidth="1"/>
     <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" customWidth="1"/>
+    <col min="3" max="3" width="26.15234375" customWidth="1"/>
     <col min="4" max="4" width="6.69140625" customWidth="1"/>
     <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
+      <c r="B2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
+      <c r="B3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +3038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -2510,37 +3054,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2563,7 +3107,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2579,7 +3123,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2604,7 +3148,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2629,7 +3173,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2654,7 +3198,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2688,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2724,7 +3268,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2735,7 +3279,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F3" s="9" t="e">
         <f>(D3-D2)/E3*60</f>
@@ -2744,17 +3288,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2767,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2822,36 +3366,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="Q1" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2869,93 +3413,85 @@
         <v>40444</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
@@ -2966,16 +3502,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -2984,64 +3520,58 @@
         <v>120</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,54 +3581,60 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7"/>
       <c r="K17" s="18"/>
@@ -3111,54 +3647,60 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
       </c>
       <c r="I20" s="7"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I21" s="7"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I22" s="7"/>
       <c r="K22" s="18"/>
@@ -3171,54 +3713,60 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
       </c>
       <c r="I24" s="7"/>
       <c r="K24" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
       </c>
       <c r="I25" s="7"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I26" s="7"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I27" s="7"/>
       <c r="K27" s="18"/>
@@ -3231,54 +3779,60 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
       </c>
       <c r="I29" s="7"/>
       <c r="K29" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
       </c>
       <c r="I30" s="7"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I31" s="7"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I32" s="7"/>
       <c r="K32" s="18"/>
@@ -3292,49 +3846,55 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
       </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I37" s="7"/>
     </row>
@@ -3346,36 +3906,42 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I41" s="7"/>
     </row>
@@ -3387,82 +3953,127 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="C46" s="20"/>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
+      <c r="A48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>41</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="20"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3606,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3618,493 +4229,493 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Documents\Junior Year\Spring 2019\Agile Methods for Software Dev\Week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165C424-64B8-FA48-B2F7-C2DA919A183A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="27300" windowHeight="15480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="287">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -908,12 +909,36 @@
   </si>
   <si>
     <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_multipleBirths</t>
+  </si>
+  <si>
+    <t>13-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1209,7 +1234,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1280,7 +1305,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2260,22 +2285,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2309,7 +2334,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -2326,7 +2351,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -2343,7 +2368,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>240</v>
       </c>
@@ -2360,7 +2385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>243</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
@@ -2391,12 +2416,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4" display="mwisnews@stevens.edu"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mwisnews@stevens.edu" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2404,23 +2429,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="26.15234375" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2454,7 +2479,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2471,7 +2496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2488,7 +2513,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2505,7 +2530,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2539,7 +2564,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2556,7 +2581,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2590,7 +2615,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2604,10 +2629,10 @@
         <v>200</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2621,7 +2646,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2635,7 +2660,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2649,7 +2674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2677,7 +2702,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2691,7 +2716,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2705,7 +2730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2719,7 +2744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2733,7 +2758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2761,7 +2786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2775,7 +2800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2789,7 +2814,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2803,7 +2828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2817,7 +2842,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2831,7 +2856,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2845,7 +2870,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2859,7 +2884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2873,7 +2898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2887,7 +2912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2901,7 +2926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2915,7 +2940,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2943,7 +2968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2971,7 +2996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2985,7 +3010,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2999,7 +3024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3035,54 +3060,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>167</v>
       </c>
@@ -3105,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -3121,7 +3146,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -3146,7 +3171,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>170</v>
       </c>
@@ -3171,7 +3196,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -3196,7 +3221,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>172</v>
       </c>
@@ -3229,24 +3254,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3266,7 +3291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3277,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>265</v>
       </c>
@@ -3286,17 +3311,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>268</v>
       </c>
@@ -3310,34 +3335,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.84375" customWidth="1"/>
-    <col min="2" max="2" width="35.84375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.4609375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="17" style="17" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3410,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
@@ -3431,7 +3457,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>232</v>
       </c>
@@ -3445,7 +3471,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>233</v>
       </c>
@@ -3457,7 +3483,7 @@
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>234</v>
       </c>
@@ -3469,7 +3495,7 @@
       </c>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>235</v>
       </c>
@@ -3481,7 +3507,7 @@
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>236</v>
       </c>
@@ -3493,14 +3519,14 @@
       </c>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>218</v>
       </c>
@@ -3538,7 +3564,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>253</v>
       </c>
@@ -3552,7 +3578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>254</v>
       </c>
@@ -3563,7 +3589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>255</v>
       </c>
@@ -3574,12 +3600,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" s="22"/>
       <c r="C13" s="20"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>115</v>
       </c>
@@ -3597,7 +3623,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3613,7 +3639,7 @@
       <c r="I15" s="7"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3626,7 +3652,7 @@
       <c r="I16" s="7"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -3639,13 +3665,13 @@
       <c r="I17" s="7"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="22"/>
       <c r="C18" s="20"/>
       <c r="I18" s="7"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>116</v>
       </c>
@@ -3663,7 +3689,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>250</v>
       </c>
@@ -3679,7 +3705,7 @@
       <c r="I20" s="7"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>251</v>
       </c>
@@ -3692,7 +3718,7 @@
       <c r="I21" s="7"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>252</v>
       </c>
@@ -3705,13 +3731,13 @@
       <c r="I22" s="7"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
       <c r="I23" s="7"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
@@ -3729,7 +3755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>158</v>
       </c>
@@ -3745,7 +3771,7 @@
       <c r="I25" s="7"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
         <v>159</v>
       </c>
@@ -3758,7 +3784,7 @@
       <c r="I26" s="7"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>160</v>
       </c>
@@ -3771,13 +3797,13 @@
       <c r="I27" s="7"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
       <c r="C28" s="20"/>
       <c r="I28" s="7"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
@@ -3795,7 +3821,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>223</v>
       </c>
@@ -3811,7 +3837,7 @@
       <c r="I30" s="7"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>224</v>
       </c>
@@ -3824,7 +3850,7 @@
       <c r="I31" s="7"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>225</v>
       </c>
@@ -3837,14 +3863,14 @@
       <c r="I32" s="7"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="I33" s="7"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>219</v>
       </c>
@@ -3859,7 +3885,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
         <v>256</v>
       </c>
@@ -3874,7 +3900,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
         <v>257</v>
       </c>
@@ -3886,7 +3912,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="s">
         <v>258</v>
       </c>
@@ -3898,13 +3924,13 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>144</v>
       </c>
@@ -3915,10 +3941,43 @@
         <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>86</v>
+      </c>
+      <c r="H39">
+        <v>120</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
         <v>262</v>
       </c>
@@ -3929,11 +3988,28 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>120</v>
+      </c>
+      <c r="G40">
+        <v>86</v>
+      </c>
+      <c r="H40">
+        <v>120</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
         <v>263</v>
       </c>
@@ -3943,15 +4019,35 @@
       <c r="C41" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>86</v>
+      </c>
+      <c r="H41">
+        <v>120</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="20"/>
       <c r="B42" s="4"/>
       <c r="C42" s="20"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>128</v>
       </c>
@@ -3966,7 +4062,7 @@
       </c>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="s">
         <v>271</v>
       </c>
@@ -3981,7 +4077,7 @@
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
         <v>272</v>
       </c>
@@ -3993,13 +4089,13 @@
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="20"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>141</v>
       </c>
@@ -4014,7 +4110,7 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
         <v>269</v>
       </c>
@@ -4029,7 +4125,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
         <v>270</v>
       </c>
@@ -4041,31 +4137,31 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="20"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4078,16 +4174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4124,16 +4220,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4169,16 +4265,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4214,20 +4310,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -4238,7 +4334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -4252,7 +4348,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -4266,7 +4362,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -4280,7 +4376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4291,7 +4387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -4302,7 +4398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -4316,7 +4412,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -4330,7 +4426,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4341,7 +4437,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -4352,7 +4448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -4363,7 +4459,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -4374,7 +4470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -4385,7 +4481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -4396,7 +4492,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -4407,7 +4503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -4418,7 +4514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -4429,7 +4525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4440,7 +4536,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4451,7 +4547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4462,7 +4558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -4473,7 +4569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -4484,7 +4580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -4495,7 +4591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -4506,7 +4602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -4517,7 +4613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -4528,7 +4624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -4539,7 +4635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -4550,7 +4646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -4561,7 +4657,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -4572,7 +4668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -4583,7 +4679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -4594,7 +4690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -4608,7 +4704,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -4619,7 +4715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -4630,7 +4726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -4641,7 +4737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -4652,7 +4748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -4663,7 +4759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -4674,7 +4770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -4685,7 +4781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4696,7 +4792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4707,7 +4803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="285">
   <si>
     <t xml:space="preserve">Initials</t>
   </si>
@@ -651,7 +651,7 @@
     <t xml:space="preserve">test_multipleBirths</t>
   </si>
   <si>
-    <t xml:space="preserve">13-21</t>
+    <t xml:space="preserve">50-59</t>
   </si>
   <si>
     <t xml:space="preserve">T32.01</t>
@@ -666,6 +666,21 @@
     <t xml:space="preserve">Compare birth dates </t>
   </si>
   <si>
+    <t xml:space="preserve">us16.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameLastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62-71</t>
+  </si>
+  <si>
     <t xml:space="preserve">T16.01</t>
   </si>
   <si>
@@ -696,7 +711,7 @@
     <t xml:space="preserve">testDeaths</t>
   </si>
   <si>
-    <t xml:space="preserve">26-37</t>
+    <t xml:space="preserve">73-82</t>
   </si>
   <si>
     <t xml:space="preserve">T29.01</t>
@@ -708,7 +723,7 @@
     <t xml:space="preserve">T29.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Store name of deceased</t>
+    <t xml:space="preserve">Store name if deceased</t>
   </si>
   <si>
     <t xml:space="preserve">Review Results</t>
@@ -1076,7 +1091,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1257,11 +1272,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="73382460"/>
-        <c:axId val="22813388"/>
+        <c:axId val="33713875"/>
+        <c:axId val="80896723"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73382460"/>
+        <c:axId val="33713875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,14 +1308,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22813388"/>
+        <c:crossAx val="80896723"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22813388"/>
+        <c:axId val="80896723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1357,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73382460"/>
+        <c:crossAx val="33713875"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1474,11 +1489,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94516346"/>
-        <c:axId val="29495774"/>
+        <c:axId val="50735632"/>
+        <c:axId val="44907627"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94516346"/>
+        <c:axId val="50735632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,14 +1525,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29495774"/>
+        <c:crossAx val="44907627"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29495774"/>
+        <c:axId val="44907627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1574,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94516346"/>
+        <c:crossAx val="50735632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1597,9 +1612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>396720</xdr:colOff>
+      <xdr:colOff>396000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1608,7 +1623,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="948240" y="3627720"/>
-        <a:ext cx="4916160" cy="2670480"/>
+        <a:ext cx="4915440" cy="2669760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1627,9 +1642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>947160</xdr:colOff>
+      <xdr:colOff>946440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1639,7 +1654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1342080" y="1511280"/>
-          <a:ext cx="1243800" cy="629640"/>
+          <a:ext cx="1243080" cy="628920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1726,9 +1741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>498240</xdr:colOff>
+      <xdr:colOff>497520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1738,7 +1753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5581080" y="1485720"/>
-          <a:ext cx="1272240" cy="536760"/>
+          <a:ext cx="1271520" cy="536040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1806,9 +1821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1818,7 +1833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2878200" y="1316520"/>
-          <a:ext cx="1094400" cy="798840"/>
+          <a:ext cx="1093680" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1886,9 +1901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1898,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4007520" y="1638000"/>
-          <a:ext cx="408960" cy="426600"/>
+          <a:ext cx="408240" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1985,9 +2000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1997,7 +2012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4480200" y="1337400"/>
-          <a:ext cx="1079280" cy="744120"/>
+          <a:ext cx="1078560" cy="743400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2065,9 +2080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
+      <xdr:colOff>624600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2077,7 +2092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5733360" y="5126400"/>
-          <a:ext cx="1247040" cy="629640"/>
+          <a:ext cx="1246320" cy="628920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2150,9 +2165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>396720</xdr:colOff>
+      <xdr:colOff>396000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2161,7 +2176,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="948240" y="1481400"/>
-        <a:ext cx="5346720" cy="2670480"/>
+        <a:ext cx="5346000" cy="2669760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3261,10 +3276,10 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Q49" activeCellId="0" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3829,7 +3844,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>208</v>
       </c>
@@ -3907,8 +3922,11 @@
       <c r="K40" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L40" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>210</v>
       </c>
@@ -3938,6 +3956,9 @@
       </c>
       <c r="K41" s="13" t="s">
         <v>202</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +3966,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3956,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>45</v>
@@ -3964,19 +3985,46 @@
       <c r="F43" s="0" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>45</v>
@@ -3984,19 +4032,34 @@
       <c r="F44" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>39</v>
+      <c r="D45" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>45</v>
@@ -4004,25 +4067,55 @@
       <c r="F45" s="0" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>120</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +4123,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4059,30 +4152,30 @@
         <v>201</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O48" s="13" t="s">
         <v>205</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
@@ -4106,19 +4199,25 @@
         <v>201</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="E50" s="0" t="n">
         <v>10</v>
       </c>
@@ -4135,7 +4234,10 @@
         <v>201</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +4248,7 @@
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4256,7 @@
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="14" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,7 +4264,7 @@
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4473,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,10 +4484,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,10 +4498,10 @@
         <v>41</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,10 +4512,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,7 +4537,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,10 +4548,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,10 +4562,10 @@
         <v>196</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4576,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4587,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,18 +4598,18 @@
         <v>64</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4620,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4631,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4642,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4653,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4664,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4675,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4686,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4697,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4708,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4719,7 @@
         <v>82</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4730,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4741,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4752,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4763,7 @@
         <v>90</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4774,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4785,7 @@
         <v>94</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4796,7 @@
         <v>96</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4807,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4818,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4829,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,10 +4840,10 @@
         <v>58</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4854,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,7 +4865,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,7 +4876,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +4887,7 @@
         <v>108</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,7 +4898,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,7 +4909,7 @@
         <v>112</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,18 +4920,18 @@
         <v>114</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4942,7 @@
         <v>116</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +4953,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/SSW_555_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED3180-3597-2A4C-8B36-8EF8FA23D22B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22860" windowHeight="13540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,510 +38,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="280">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chloequinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengyuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stdlibrainbow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisnewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwisnews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakshak</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="282">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
   </si>
   <si>
     <t xml:space="preserve">Kumar </t>
   </si>
   <si>
-    <t xml:space="preserve">rkumar5@stevens.edu</t>
+    <t>rkumar5@stevens.edu</t>
   </si>
   <si>
     <t xml:space="preserve">rakshak10 </t>
   </si>
   <si>
-    <t xml:space="preserve">rz</t>
+    <t>rz</t>
   </si>
   <si>
     <t xml:space="preserve">Renjie </t>
   </si>
   <si>
-    <t xml:space="preserve">Zhou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou4@stevens.edu</t>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
   </si>
   <si>
     <t xml:space="preserve">rzhou10 </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test lines</t>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
   </si>
   <si>
     <t xml:space="preserve">Dates before current date </t>
   </si>
   <si>
-    <t xml:space="preserve">gedcom.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us03_birth_b4_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test03.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_us03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birthdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store marriage date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store divorce date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.04</t>
+    <t>gedcom.py</t>
+  </si>
+  <si>
+    <t>us03_birth_b4_death</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>test03.py</t>
+  </si>
+  <si>
+    <t>test_us03</t>
+  </si>
+  <si>
+    <t>15-23</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
   </si>
   <si>
     <t xml:space="preserve">Store death date </t>
   </si>
   <si>
-    <t xml:space="preserve">T01.05</t>
+    <t>T01.05</t>
   </si>
   <si>
     <t xml:space="preserve">Compare dates to current date </t>
@@ -540,76 +550,64 @@
     <t xml:space="preserve">US02 </t>
   </si>
   <si>
-    <t xml:space="preserve">us05_marr_b4_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test05.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_us05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date to death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.03</t>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
   </si>
   <si>
     <t xml:space="preserve">Compare divorce date and death date </t>
@@ -618,304 +616,309 @@
     <t xml:space="preserve">US07 </t>
   </si>
   <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.03</t>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
   </si>
   <si>
     <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us32.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkMultipleBirths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit_test.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_multipleBirths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T32.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T32.02</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_multipleBirths</t>
+  </si>
+  <si>
+    <t>13-21</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
   </si>
   <si>
     <t xml:space="preserve">Compare birth dates </t>
   </si>
   <si>
-    <t xml:space="preserve">T16.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the person is male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us29.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testDeaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the person is deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store name of deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>26-37</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name of deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>us02.py</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>128-129</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>132-144</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="M/D"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -925,22 +928,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -958,7 +960,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -966,129 +968,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1147,17 +1080,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1165,12 +1118,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1180,45 +1130,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/6/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/19/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7/31/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1241,14 +1201,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35FA-8349-AE4F-C0A69ED76BA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1257,17 +1227,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="73382460"/>
         <c:axId val="22813388"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="73382460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1284,21 +1255,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="22813388"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="22813388"/>
         <c:scaling>
@@ -1333,13 +1305,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="73382460"/>
@@ -1348,7 +1321,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1357,24 +1330,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1382,12 +1365,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1397,25 +1377,37 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2/11/2019 (Start)</c:v>
                 </c:pt>
@@ -1431,9 +1423,6 @@
                 <c:pt idx="4">
                   <c:v>4/8/2019 (Sprint 4)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1446,26 +1435,24 @@
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C89-0E43-96D2-731118FE579D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1474,6 +1461,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="94516346"/>
         <c:axId val="29495774"/>
       </c:lineChart>
@@ -1484,7 +1472,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1501,13 +1489,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29495774"/>
@@ -1515,6 +1504,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="29495774"/>
@@ -1550,13 +1540,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94516346"/>
@@ -1565,7 +1556,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1574,20 +1565,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1601,14 +1598,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3627720"/>
-        <a:ext cx="4916160" cy="2670480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1631,9 +1634,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1650,11 +1659,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1674,7 +1683,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1682,15 +1692,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1701,15 +1711,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1730,9 +1740,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1749,11 +1765,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1773,7 +1789,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1781,15 +1798,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1810,9 +1827,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1829,11 +1852,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1853,7 +1876,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1861,15 +1885,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1890,9 +1914,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1909,11 +1939,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1933,7 +1963,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1941,15 +1972,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1960,15 +1991,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1989,9 +2020,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2008,11 +2045,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2032,7 +2069,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2040,15 +2078,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2069,9 +2107,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2088,11 +2132,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2112,7 +2156,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2120,15 +2165,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2140,7 +2185,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2154,14 +2199,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="1481400"/>
-        <a:ext cx="5346720" cy="2670480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2174,27 +2225,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,48 +2554,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2262,7 +2605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2296,55 +2639,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="cquinto@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId2" display="mwang60@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId3" display="mwisnews@stevens.edu"/>
-    <hyperlink ref="E5" r:id="rId4" display="mwisnews"/>
-    <hyperlink ref="D6" r:id="rId5" display="rkumar5@stevens.edu"/>
-    <hyperlink ref="D7" r:id="rId6" display="rzhou4@stevens.edu"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2361,8 +2697,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" ht="14">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2378,8 +2714,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5" ht="14">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2395,8 +2731,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2412,8 +2748,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2429,8 +2765,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2446,8 +2782,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2463,8 +2799,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2480,8 +2816,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2497,8 +2833,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2514,8 +2850,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2531,490 +2867,483 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3037,157 +3366,150 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="6">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="6" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="6">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="6">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="6" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="6">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>125</v>
       </c>
@@ -3207,89 +3529,82 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f aca="false">(D3-D2)/E3*60</f>
+        <f>(D3-D2)/E3*60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="37.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="13" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="13" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="13" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="13" width="1.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="13" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="13" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="13"/>
+    <col min="12" max="12" width="19.1640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="17" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
+    <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3336,7 +3651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" ht="14">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3349,19 +3664,19 @@
       <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>150</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>120</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>40444</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -3383,7 +3698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="3" t="s">
         <v>159</v>
       </c>
@@ -3397,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="3" t="s">
         <v>161</v>
       </c>
@@ -3409,7 +3724,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="3" t="s">
         <v>163</v>
       </c>
@@ -3421,7 +3736,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
@@ -3433,7 +3748,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>167</v>
       </c>
@@ -3445,13 +3760,13 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" ht="14" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -3461,51 +3776,51 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>120</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="L9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14">
+      <c r="A10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O9" s="18" t="s">
+      <c r="B10" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>162</v>
@@ -3513,23 +3828,29 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3539,58 +3860,58 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>179</v>
+    <row r="15" spans="1:17" ht="14">
+      <c r="A15" t="s">
+        <v>175</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>180</v>
+    <row r="16" spans="1:17" ht="14">
+      <c r="A16" t="s">
+        <v>176</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>182</v>
+    <row r="17" spans="1:11" ht="17" customHeight="1">
+      <c r="A17" t="s">
+        <v>178</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="17" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3600,16 +3921,16 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="14">
       <c r="A20" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>162</v>
@@ -3617,14 +3938,14 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="14">
       <c r="A21" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>164</v>
@@ -3634,24 +3955,24 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="22" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3661,16 +3982,16 @@
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>162</v>
@@ -3678,41 +3999,41 @@
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="14">
       <c r="A26" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="17" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3722,16 +4043,16 @@
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>164</v>
@@ -3739,97 +4060,97 @@
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3839,81 +4160,81 @@
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>100</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>120</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>86</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39">
         <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="O39" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="P39" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="Q39" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="M39" s="18" t="s">
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="B40" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>100</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>120</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>86</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40">
         <v>120</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -3921,31 +4242,31 @@
       <c r="D41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>100</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>120</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>86</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41">
         <v>120</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3955,82 +4276,82 @@
       <c r="C43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>45</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>120</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>45</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>120</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>45</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>120</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>45</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46">
         <v>120</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4040,159 +4361,152 @@
       <c r="C48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>10</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>30</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>15</v>
       </c>
       <c r="I48" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="O48" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="P48" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q48" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="L48" s="13" t="s">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="B49" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>10</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49">
         <v>30</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>10</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>30</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50">
         <v>6</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>15</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:11" ht="14">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:11" ht="14">
       <c r="B54" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="B55" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:11" ht="14">
       <c r="B58" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4222,33 +4536,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4278,33 +4585,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4334,36 +4634,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4371,496 +4664,492 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="D4" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="51">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="20" t="s">
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="34">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="68">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="20" t="s">
+    <row r="9" spans="1:4" ht="51">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="20" t="s">
+    <row r="10" spans="1:4" ht="51">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="51">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="0" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="34">
+      <c r="A12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="20" t="s">
+    <row r="13" spans="1:4" ht="68">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="14" spans="1:4" ht="85">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="34">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="20" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="34">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="20" t="s">
+    <row r="17" spans="1:3" ht="34">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="20" t="s">
+    <row r="18" spans="1:3" ht="34">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="20" t="s">
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="20" t="s">
+    <row r="20" spans="1:3" ht="34">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="20" t="s">
+    <row r="21" spans="1:3" ht="34">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="20" t="s">
+    <row r="22" spans="1:3" ht="34">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="20" t="s">
+    <row r="23" spans="1:3" ht="34">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="20" t="s">
+    <row r="24" spans="1:3" ht="51">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="20" t="s">
+    <row r="25" spans="1:3" ht="68">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    <row r="26" spans="1:3" ht="51">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="20" t="s">
+    <row r="27" spans="1:3" ht="170">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="20" t="s">
+    <row r="28" spans="1:3" ht="34">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="20" t="s">
+    <row r="29" spans="1:3" ht="34">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="20" t="s">
+    <row r="30" spans="1:3" ht="34">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="20" t="s">
+    <row r="31" spans="1:3" ht="34">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="20" t="s">
+    <row r="32" spans="1:3" ht="34">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="20" t="s">
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="D33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="51">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="20" t="s">
+    <row r="35" spans="1:4" ht="51">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="20" t="s">
+    <row r="36" spans="1:4" ht="34">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="20" t="s">
+    <row r="37" spans="1:4" ht="34">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="20" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="51">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="20" t="s">
+    <row r="39" spans="1:4" ht="51">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="20" t="s">
+    <row r="40" spans="1:4" ht="51">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="30.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="20" t="s">
+    <row r="41" spans="1:4" ht="34">
+      <c r="A41" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="B41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="20" t="s">
+    <row r="42" spans="1:4" ht="34">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="43" spans="1:4" ht="51">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>279</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5695A467-99D5-A747-8B89-C5C6EED20CB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="298">
   <si>
     <t>Initials</t>
   </si>
@@ -924,16 +923,24 @@
   </si>
   <si>
     <t>86-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>us03.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1012,7 +1019,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1464,6 +1471,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,23 +2561,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2679,12 +2689,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2692,24 +2702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69140625" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2743,7 +2753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2777,7 +2787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2811,7 +2821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2828,7 +2838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2845,7 +2855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2896,7 +2906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2910,7 +2920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2938,7 +2948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2966,7 +2976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3008,7 +3018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3022,7 +3032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3050,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3120,7 +3130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3134,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3176,7 +3186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3204,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3232,7 +3242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3246,7 +3256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3288,7 +3298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3323,55 +3333,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3394,7 +3404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
@@ -3410,7 +3420,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
@@ -3435,7 +3445,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
@@ -3460,7 +3470,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
@@ -3485,7 +3495,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
@@ -3518,25 +3528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
@@ -3556,7 +3566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
@@ -3567,26 +3577,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>136</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="e">
         <f>(D3-D2)/E3*60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -3599,38 +3615,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="13"/>
-    <col min="12" max="12" width="19.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" style="13"/>
+    <col min="12" max="12" width="19.15234375" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3693,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3694,10 +3710,10 @@
         <v>150</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -3724,7 +3740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
@@ -3737,8 +3753,20 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>190</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
@@ -3751,8 +3779,26 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>190</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="L4" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -3765,8 +3811,26 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>190</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -3779,8 +3843,23 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>190</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>166</v>
       </c>
@@ -3793,14 +3872,26 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>190</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -3814,10 +3905,10 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>152</v>
@@ -3838,7 +3929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>173</v>
       </c>
@@ -3851,8 +3942,14 @@
       <c r="D10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>175</v>
       </c>
@@ -3865,8 +3962,14 @@
       <c r="D11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>176</v>
       </c>
@@ -3879,12 +3982,18 @@
       <c r="D12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3897,11 +4006,29 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>120</v>
+      </c>
+      <c r="I14" s="5">
+        <v>41687</v>
+      </c>
       <c r="K14" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -3914,9 +4041,29 @@
       <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5">
+        <v>41687</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -3929,9 +4076,29 @@
       <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5">
+        <v>41687</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -3944,14 +4111,34 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5">
+        <v>41687</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -3964,11 +4151,17 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
       <c r="K19" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>183</v>
       </c>
@@ -3981,9 +4174,15 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>184</v>
       </c>
@@ -3996,9 +4195,15 @@
       <c r="D21" t="s">
         <v>55</v>
       </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>185</v>
       </c>
@@ -4011,14 +4216,20 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4031,11 +4242,17 @@
       <c r="D24" t="s">
         <v>55</v>
       </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
       <c r="K24" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>186</v>
       </c>
@@ -4048,9 +4265,15 @@
       <c r="D25" t="s">
         <v>55</v>
       </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>187</v>
       </c>
@@ -4063,9 +4286,15 @@
       <c r="D26" t="s">
         <v>55</v>
       </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>188</v>
       </c>
@@ -4078,14 +4307,20 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -4098,11 +4333,17 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>60</v>
+      </c>
       <c r="K29" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>190</v>
       </c>
@@ -4115,9 +4356,15 @@
       <c r="D30" t="s">
         <v>55</v>
       </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>191</v>
       </c>
@@ -4130,9 +4377,15 @@
       <c r="D31" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>192</v>
       </c>
@@ -4145,15 +4398,21 @@
       <c r="D32" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>194</v>
       </c>
@@ -4167,7 +4426,7 @@
         <v>55</v>
       </c>
       <c r="E34">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>60</v>
@@ -4200,7 +4459,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>196</v>
       </c>
@@ -4214,10 +4473,10 @@
         <v>55</v>
       </c>
       <c r="E35">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -4238,7 +4497,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>197</v>
       </c>
@@ -4252,10 +4511,10 @@
         <v>55</v>
       </c>
       <c r="E36">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -4276,7 +4535,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>198</v>
       </c>
@@ -4290,10 +4549,10 @@
         <v>55</v>
       </c>
       <c r="E37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -4314,12 +4573,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4336,7 +4595,7 @@
         <v>100</v>
       </c>
       <c r="F39">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <v>86</v>
@@ -4366,7 +4625,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>207</v>
       </c>
@@ -4380,10 +4639,10 @@
         <v>55</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>86</v>
@@ -4401,7 +4660,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>209</v>
       </c>
@@ -4415,10 +4674,10 @@
         <v>55</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F41">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <v>86</v>
@@ -4436,12 +4695,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -4455,7 +4714,7 @@
         <v>55</v>
       </c>
       <c r="E43">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F43">
         <v>120</v>
@@ -4488,7 +4747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>216</v>
       </c>
@@ -4502,10 +4761,10 @@
         <v>55</v>
       </c>
       <c r="E44">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>42</v>
@@ -4523,7 +4782,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
@@ -4537,10 +4796,10 @@
         <v>55</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>42</v>
@@ -4558,7 +4817,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>220</v>
       </c>
@@ -4572,10 +4831,10 @@
         <v>55</v>
       </c>
       <c r="E46">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>42</v>
@@ -4593,12 +4852,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -4612,10 +4871,10 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>6</v>
@@ -4645,7 +4904,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>227</v>
       </c>
@@ -4659,10 +4918,10 @@
         <v>55</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -4680,7 +4939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>229</v>
       </c>
@@ -4694,10 +4953,10 @@
         <v>55</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -4715,29 +4974,29 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>233</v>
       </c>
@@ -4749,19 +5008,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4797,19 +5056,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4845,19 +5104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4893,22 +5152,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4919,7 +5178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4933,7 +5192,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4947,7 +5206,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4961,7 +5220,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4972,7 +5231,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4983,7 +5242,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -4997,7 +5256,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5011,7 +5270,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5022,7 +5281,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5033,7 +5292,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5044,7 +5303,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -5055,7 +5314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="119" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -5066,7 +5325,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="170" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5077,7 +5336,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -5088,7 +5347,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5099,7 +5358,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5110,7 +5369,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5121,7 +5380,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -5132,7 +5391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -5143,7 +5402,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -5154,7 +5413,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5165,7 +5424,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -5176,7 +5435,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="102" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5187,7 +5446,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5198,7 +5457,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5209,7 +5468,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="356" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -5220,7 +5479,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5231,7 +5490,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -5242,7 +5501,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5253,7 +5512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -5264,7 +5523,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -5275,7 +5534,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -5289,7 +5548,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -5300,7 +5559,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="102" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -5311,7 +5570,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -5322,7 +5581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -5333,7 +5592,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -5344,7 +5603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -5355,7 +5614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -5366,7 +5625,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>279</v>
       </c>
@@ -5377,7 +5636,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -5388,7 +5647,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="306">
   <si>
     <t>Initials</t>
   </si>
@@ -499,21 +499,6 @@
     <t>gedcom.py</t>
   </si>
   <si>
-    <t>us03_birth_b4_death</t>
-  </si>
-  <si>
-    <t>33-36</t>
-  </si>
-  <si>
-    <t>test03.py</t>
-  </si>
-  <si>
-    <t>test_us03</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
     <t>T01.01</t>
   </si>
   <si>
@@ -547,18 +532,6 @@
     <t xml:space="preserve">US02 </t>
   </si>
   <si>
-    <t>us05_marr_b4_death</t>
-  </si>
-  <si>
-    <t>test05.py</t>
-  </si>
-  <si>
-    <t>test_us05</t>
-  </si>
-  <si>
-    <t>29-34</t>
-  </si>
-  <si>
     <t>T02.01</t>
   </si>
   <si>
@@ -925,13 +898,64 @@
     <t>86-91</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>us03.birthBeforeDeath</t>
   </si>
   <si>
     <t>us03.py</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>BirthBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>140-169</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_dateBeforeCurrent</t>
+  </si>
+  <si>
+    <t>172-179</t>
+  </si>
+  <si>
+    <t>149-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
   </si>
 </sst>
 </file>
@@ -2705,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2911,13 +2935,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2925,13 +2949,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2939,13 +2963,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,13 +2977,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,13 +2991,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,13 +3005,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,13 +3019,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,13 +3033,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,13 +3047,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,13 +3061,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3065,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -3079,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -3135,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -3191,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -3233,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -3336,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3618,10 +3642,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3637,7 +3661,7 @@
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.4609375" style="13"/>
-    <col min="12" max="12" width="19.15234375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.15234375" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
     <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
@@ -3719,33 +3743,33 @@
         <v>90</v>
       </c>
       <c r="I2" s="5">
-        <v>40444</v>
+        <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -3760,18 +3784,31 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42058</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -3786,24 +3823,31 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>150</v>
-      </c>
-      <c r="L4" s="13">
-        <v>150</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42058</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -3818,24 +3862,31 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>150</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>295</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>42058</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -3850,21 +3901,31 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <v>150</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42058</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -3879,11 +3940,24 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <v>42058</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -3893,7 +3967,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>40</v>
@@ -3905,36 +3979,45 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5">
+        <v>42051</v>
+      </c>
       <c r="K9" s="18" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -3943,18 +4026,37 @@
         <v>55</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5">
+        <v>42051</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -3963,18 +4065,37 @@
         <v>55</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5">
+        <v>42051</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -3988,6 +4109,25 @@
       <c r="F12">
         <v>20</v>
       </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5">
+        <v>42051</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
@@ -4022,18 +4162,30 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -4057,18 +4209,19 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>296</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -4092,18 +4245,19 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -4127,18 +4281,19 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4161,12 +4316,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
@@ -4182,12 +4337,12 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -4203,12 +4358,12 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -4224,12 +4379,12 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4252,12 +4407,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>20</v>
@@ -4273,12 +4428,12 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -4294,12 +4449,12 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -4315,12 +4470,12 @@
       </c>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -4339,16 +4494,40 @@
       <c r="F29">
         <v>60</v>
       </c>
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29">
+        <v>120</v>
+      </c>
+      <c r="I29" s="5">
+        <v>42057</v>
+      </c>
       <c r="K29" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -4362,14 +4541,25 @@
       <c r="F30">
         <v>20</v>
       </c>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
@@ -4383,14 +4573,25 @@
       <c r="F31">
         <v>20</v>
       </c>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>44</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -4404,7 +4605,18 @@
       <c r="F32">
         <v>20</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -4414,10 +4626,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -4438,33 +4650,33 @@
         <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K34" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="Q34" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="P34" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -4485,24 +4697,24 @@
         <v>60</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -4523,24 +4735,24 @@
         <v>60</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -4561,16 +4773,16 @@
         <v>60</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,33 +4816,33 @@
         <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -4651,21 +4863,21 @@
         <v>120</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -4686,13 +4898,13 @@
         <v>120</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,33 +4938,33 @@
         <v>110</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
@@ -4773,21 +4985,21 @@
         <v>110</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
@@ -4808,21 +5020,21 @@
         <v>110</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>25</v>
@@ -4843,13 +5055,13 @@
         <v>110</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,33 +5095,33 @@
         <v>15</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
@@ -4930,21 +5142,21 @@
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>25</v>
@@ -4965,13 +5177,13 @@
         <v>15</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4982,7 +5194,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4990,7 +5202,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4998,7 +5210,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5387,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5186,10 +5398,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5200,10 +5412,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5214,10 +5426,10 @@
         <v>42</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5228,7 +5440,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5239,7 +5451,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5250,10 +5462,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
@@ -5261,13 +5473,13 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5278,7 +5490,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5289,7 +5501,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5300,18 +5512,18 @@
         <v>63</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
@@ -5322,7 +5534,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
@@ -5333,7 +5545,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5344,7 +5556,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5355,7 +5567,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5366,7 +5578,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5377,7 +5589,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5388,7 +5600,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5399,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5410,7 +5622,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5421,7 +5633,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5432,7 +5644,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
@@ -5443,7 +5655,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -5454,7 +5666,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5465,7 +5677,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
@@ -5476,7 +5688,7 @@
         <v>91</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5487,7 +5699,7 @@
         <v>93</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5498,7 +5710,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5509,7 +5721,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5520,7 +5732,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5531,7 +5743,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5542,10 +5754,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5556,7 +5768,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5567,7 +5779,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5578,7 +5790,7 @@
         <v>105</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5589,7 +5801,7 @@
         <v>107</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5600,7 +5812,7 @@
         <v>109</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5611,7 +5823,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5622,18 +5834,18 @@
         <v>113</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5644,7 +5856,7 @@
         <v>115</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5655,7 +5867,7 @@
         <v>117</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="311">
   <si>
     <t>Initials</t>
   </si>
@@ -496,9 +496,6 @@
     <t xml:space="preserve">Dates before current date </t>
   </si>
   <si>
-    <t>gedcom.py</t>
-  </si>
-  <si>
     <t>T01.01</t>
   </si>
   <si>
@@ -956,6 +953,24 @@
   </si>
   <si>
     <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>29-107</t>
   </si>
 </sst>
 </file>
@@ -3642,10 +3657,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3661,7 +3676,7 @@
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.4609375" style="13"/>
-    <col min="12" max="12" width="22.15234375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
     <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
@@ -3746,30 +3761,30 @@
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="O2" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -3793,10 +3808,10 @@
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
@@ -3805,10 +3820,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -3832,10 +3847,10 @@
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="18"/>
@@ -3844,10 +3859,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -3871,10 +3886,10 @@
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18"/>
@@ -3883,10 +3898,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -3910,10 +3925,10 @@
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="18"/>
@@ -3922,10 +3937,10 @@
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -3949,10 +3964,10 @@
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M7" s="18"/>
       <c r="O7" s="18"/>
@@ -3967,7 +3982,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>40</v>
@@ -3994,30 +4009,30 @@
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="M9" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -4041,10 +4056,10 @@
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="M10" s="18"/>
       <c r="O10" s="18"/>
@@ -4053,10 +4068,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -4080,10 +4095,10 @@
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="M11" s="18"/>
       <c r="O11" s="18"/>
@@ -4092,10 +4107,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -4119,10 +4134,10 @@
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="M12" s="18"/>
       <c r="O12" s="18"/>
@@ -4162,30 +4177,30 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="P14" s="13" t="s">
+      <c r="Q14" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -4209,19 +4224,19 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -4245,19 +4260,19 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -4281,10 +4296,10 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -4312,16 +4327,28 @@
       <c r="F19">
         <v>60</v>
       </c>
+      <c r="G19">
+        <v>114</v>
+      </c>
+      <c r="H19">
+        <v>150</v>
+      </c>
       <c r="K19" s="18" t="s">
-        <v>152</v>
+        <v>306</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
@@ -4335,14 +4362,25 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -4356,14 +4394,25 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -4377,7 +4426,18 @@
       <c r="F22">
         <v>20</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
@@ -4403,16 +4463,28 @@
       <c r="F24">
         <v>60</v>
       </c>
+      <c r="G24">
+        <v>118</v>
+      </c>
+      <c r="H24">
+        <v>150</v>
+      </c>
       <c r="K24" s="18" t="s">
-        <v>152</v>
+        <v>305</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>20</v>
@@ -4426,14 +4498,25 @@
       <c r="F25">
         <v>20</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -4447,14 +4530,25 @@
       <c r="F26">
         <v>20</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -4468,7 +4562,18 @@
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
@@ -4504,30 +4609,30 @@
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>289</v>
-      </c>
       <c r="M29" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="O29" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="Q29" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -4548,18 +4653,18 @@
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
@@ -4580,18 +4685,18 @@
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -4612,10 +4717,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,10 +4731,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -4650,33 +4755,33 @@
         <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="M34" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P34" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q34" s="21" t="s">
         <v>284</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -4697,24 +4802,24 @@
         <v>60</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -4735,24 +4840,24 @@
         <v>60</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -4773,16 +4878,16 @@
         <v>60</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,33 +4921,33 @@
         <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="L39" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="M39" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="O39" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="P39" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="P39" s="18" t="s">
+      <c r="Q39" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -4863,21 +4968,21 @@
         <v>120</v>
       </c>
       <c r="I40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="L40" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -4898,13 +5003,13 @@
         <v>120</v>
       </c>
       <c r="I41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,33 +5043,33 @@
         <v>110</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K43" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="M43" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="O43" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="O43" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P43" s="13" t="s">
+      <c r="Q43" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
@@ -4985,21 +5090,21 @@
         <v>110</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
@@ -5020,21 +5125,21 @@
         <v>110</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>25</v>
@@ -5055,13 +5160,13 @@
         <v>110</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K46" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L46" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,33 +5200,33 @@
         <v>15</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K48" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L48" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="M48" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="O48" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P48" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O48" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P48" s="13" t="s">
+      <c r="Q48" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
@@ -5142,21 +5247,21 @@
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K49" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L49" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>25</v>
@@ -5177,13 +5282,13 @@
         <v>15</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L50" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -5194,7 +5299,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5202,7 +5307,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5210,7 +5315,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5492,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5398,10 +5503,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5412,10 +5517,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5426,10 +5531,10 @@
         <v>42</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
         <v>229</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5440,7 +5545,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5451,7 +5556,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5462,10 +5567,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
@@ -5473,13 +5578,13 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
         <v>234</v>
-      </c>
-      <c r="D8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5490,7 +5595,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5501,7 +5606,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5512,18 +5617,18 @@
         <v>63</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
         <v>239</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="20" t="s">
         <v>240</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
@@ -5534,7 +5639,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
@@ -5545,7 +5650,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5556,7 +5661,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5567,7 +5672,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5578,7 +5683,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5589,7 +5694,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5600,7 +5705,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5611,7 +5716,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5622,7 +5727,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5633,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5644,7 +5749,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
@@ -5655,7 +5760,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
@@ -5666,7 +5771,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5677,7 +5782,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
@@ -5688,7 +5793,7 @@
         <v>91</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5699,7 +5804,7 @@
         <v>93</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5710,7 +5815,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5721,7 +5826,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -5732,7 +5837,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
@@ -5743,7 +5848,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -5754,10 +5859,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5768,7 +5873,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5779,7 +5884,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5790,7 +5895,7 @@
         <v>105</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5801,7 +5906,7 @@
         <v>107</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5812,7 +5917,7 @@
         <v>109</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5823,7 +5928,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5834,18 +5939,18 @@
         <v>113</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" t="s">
         <v>270</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="20" t="s">
         <v>271</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
@@ -5856,7 +5961,7 @@
         <v>115</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
@@ -5867,7 +5972,7 @@
         <v>117</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="317">
   <si>
     <t>Initials</t>
   </si>
@@ -971,6 +971,24 @@
   </si>
   <si>
     <t>29-107</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
   </si>
 </sst>
 </file>
@@ -3570,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3626,9 +3644,15 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="e">
+      <c r="D3">
+        <v>965</v>
+      </c>
+      <c r="E3">
+        <v>995</v>
+      </c>
+      <c r="F3" s="6">
         <f>(D3-D2)/E3*60</f>
-        <v>#DIV/0!</v>
+        <v>58.190954773869343</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3655,12 +3679,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5309,13 +5333,37 @@
       <c r="B54" s="14" t="s">
         <v>222</v>
       </c>
+      <c r="C54" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
+      <c r="C55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D38073-7F1F-9F4A-93ED-31169A11BE2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="318">
   <si>
     <t>Initials</t>
   </si>
@@ -989,12 +990,15 @@
   </si>
   <si>
     <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1254,7 +1258,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1332,7 +1336,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2618,23 +2622,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2746,12 +2750,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2759,24 +2763,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" customWidth="1"/>
-    <col min="2" max="2" width="9.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2991,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3390,55 +3394,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
@@ -3477,7 +3481,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
@@ -3585,25 +3589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -3655,17 +3659,17 @@
         <v>58.190954773869343</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -3678,38 +3682,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.84375" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="13"/>
+    <col min="11" max="11" width="11.5" style="13"/>
     <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>154</v>
       </c>
@@ -3881,7 +3885,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>156</v>
       </c>
@@ -3920,7 +3924,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>158</v>
       </c>
@@ -3959,7 +3963,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>160</v>
       </c>
@@ -3998,13 +4002,13 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
@@ -4090,7 +4094,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +4133,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -4168,11 +4172,11 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4255,7 +4259,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -4291,7 +4295,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -4327,12 +4331,12 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -4431,7 +4435,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
@@ -4463,12 +4467,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4503,7 +4507,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>176</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>177</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>178</v>
       </c>
@@ -4599,12 +4603,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>180</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>181</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>182</v>
       </c>
@@ -4747,13 +4751,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>184</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>186</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>187</v>
       </c>
@@ -4876,7 +4880,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>188</v>
       </c>
@@ -4914,12 +4918,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4966,7 +4970,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>197</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>199</v>
       </c>
@@ -5036,12 +5040,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>206</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>208</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>210</v>
       </c>
@@ -5193,12 +5197,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>217</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>219</v>
       </c>
@@ -5315,21 +5319,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
         <v>222</v>
       </c>
@@ -5337,18 +5341,18 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="14" t="s">
         <v>223</v>
       </c>
@@ -5356,14 +5360,19 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5373,19 +5382,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5421,19 +5430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5469,19 +5478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5517,22 +5526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5543,7 +5552,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5557,7 +5566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -5585,7 +5594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5657,7 +5666,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5668,7 +5677,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -5679,7 +5688,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="119" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="170" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5701,7 +5710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5745,7 +5754,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -5756,7 +5765,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -5767,7 +5776,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -5778,7 +5787,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5789,7 +5798,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="102" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="356" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -5844,7 +5853,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -5866,7 +5875,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -5924,7 +5933,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="102" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -5935,7 +5944,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>269</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>116</v>
       </c>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="130407" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +28,607 @@
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="305">
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriageBeforeDivorce</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriageBeforeDeath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>112-120</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-131</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_multipleBirths</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>62-71</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>73-82</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>gedcom.py</t>
+  </si>
+  <si>
+    <t>us03_birth_b4_death</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>test03.py</t>
+  </si>
+  <si>
+    <t>test_us03</t>
+  </si>
+  <si>
+    <t>15-23</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>us05_marr_b4_death</t>
+  </si>
+  <si>
+    <t>test05.py</t>
+  </si>
+  <si>
+    <t>test_us05</t>
+  </si>
+  <si>
+    <t>29-34</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
   <si>
     <t>Initials</t>
   </si>
@@ -368,605 +958,45 @@
   </si>
   <si>
     <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t>2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t>3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t>3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t>4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date </t>
-  </si>
-  <si>
-    <t>gedcom.py</t>
-  </si>
-  <si>
-    <t>us03_birth_b4_death</t>
-  </si>
-  <si>
-    <t>33-36</t>
-  </si>
-  <si>
-    <t>test03.py</t>
-  </si>
-  <si>
-    <t>test_us03</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birthdate</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>us05_marr_b4_death</t>
-  </si>
-  <si>
-    <t>test05.py</t>
-  </si>
-  <si>
-    <t>test_us05</t>
-  </si>
-  <si>
-    <t>29-34</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-  </si>
-  <si>
-    <t>test_multipleBirths</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>62-71</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>73-82</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>us07.py</t>
-  </si>
-  <si>
-    <t>checkForLessThan150</t>
-  </si>
-  <si>
-    <t>checkForLessThan151</t>
-  </si>
-  <si>
-    <t>checkForLessThan152</t>
-  </si>
-  <si>
-    <t>checkForLessThan153</t>
-  </si>
-  <si>
-    <t>32-58</t>
-  </si>
-  <si>
-    <t>32-59</t>
-  </si>
-  <si>
-    <t>32-60</t>
-  </si>
-  <si>
-    <t>32-61</t>
-  </si>
-  <si>
-    <t>testLessThan150</t>
-  </si>
-  <si>
-    <t>86-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t>us03.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="Verdana"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -977,7 +1007,10 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1005,20 +1038,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1028,28 +1061,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1095,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1139,10 +1176,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1150,7 +1186,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1180,14 +1215,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1197,22 +1226,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,38 +1253,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2BE-AC4B-96CD-B85F0FB1FCF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1264,20 +1285,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="33713875"/>
-        <c:axId val="80896723"/>
+        <c:axId val="301812392"/>
+        <c:axId val="329967192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33713875"/>
+        <c:axId val="301812392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1302,18 +1319,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80896723"/>
+        <c:crossAx val="329967192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80896723"/>
+        <c:axId val="329967192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1326,8 +1342,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1352,7 +1366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33713875"/>
+        <c:crossAx val="301812392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,10 +1400,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1397,7 +1410,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1427,14 +1439,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1470,29 +1476,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B015-9147-AF7E-8D29800168CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1501,20 +1499,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="50735632"/>
-        <c:axId val="44907627"/>
+        <c:axId val="301885640"/>
+        <c:axId val="344067208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50735632"/>
+        <c:axId val="301885640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1539,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44907627"/>
+        <c:crossAx val="344067208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,11 +1541,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44907627"/>
+        <c:axId val="344067208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1564,8 +1557,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1590,7 +1581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50735632"/>
+        <c:crossAx val="301885640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1643,7 +1634,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1670,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1776,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1863,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1950,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2056,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2143,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2235,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2360,7 +2351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2554,137 +2545,137 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2697,716 +2688,725 @@
     <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" customWidth="1"/>
-    <col min="2" max="2" width="9.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3420,9 +3420,9 @@
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3445,9 +3445,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3470,9 +3470,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3495,9 +3495,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3522,53 +3522,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3577,9 +3581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3592,119 +3596,124 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.84375" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="13"/>
-    <col min="12" max="12" width="19.15234375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="13"/>
+    <col min="12" max="12" width="19.140625" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3722,36 +3731,36 @@
         <v>40444</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3766,18 +3775,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3798,18 +3807,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3827,21 +3836,21 @@
         <v>150</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3859,18 +3868,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3885,24 +3894,24 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -3911,36 +3920,36 @@
         <v>60</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -3949,18 +3958,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -3969,18 +3978,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -3989,22 +3998,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -4022,24 +4031,24 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>174</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4057,24 +4066,24 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4092,24 +4101,24 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -4127,29 +4136,29 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -4157,22 +4166,43 @@
       <c r="F19">
         <v>60</v>
       </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K19" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4180,20 +4210,32 @@
       <c r="F20">
         <v>20</v>
       </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4201,20 +4243,32 @@
       <c r="F21">
         <v>20</v>
       </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -4222,25 +4276,38 @@
       <c r="F22">
         <v>20</v>
       </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="22" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
+      <c r="I23" s="22"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -4248,22 +4315,43 @@
       <c r="F24">
         <v>60</v>
       </c>
+      <c r="G24">
+        <v>120</v>
+      </c>
+      <c r="H24">
+        <v>120</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K24" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -4271,20 +4359,32 @@
       <c r="F25">
         <v>20</v>
       </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -4292,20 +4392,32 @@
       <c r="F26">
         <v>20</v>
       </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -4313,25 +4425,37 @@
       <c r="F27">
         <v>20</v>
       </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -4340,21 +4464,21 @@
         <v>60</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -4364,18 +4488,18 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -4385,18 +4509,18 @@
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -4406,24 +4530,24 @@
       </c>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -4438,39 +4562,39 @@
         <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="P34" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -4485,30 +4609,30 @@
         <v>60</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -4523,30 +4647,30 @@
         <v>60</v>
       </c>
       <c r="I36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -4561,35 +4685,35 @@
         <v>60</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -4604,39 +4728,39 @@
         <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -4651,27 +4775,27 @@
         <v>120</v>
       </c>
       <c r="I40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -4686,32 +4810,32 @@
         <v>120</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -4726,39 +4850,39 @@
         <v>110</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -4773,27 +4897,27 @@
         <v>110</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -4808,27 +4932,27 @@
         <v>110</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -4843,32 +4967,32 @@
         <v>110</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E48">
         <v>40</v>
@@ -4883,39 +5007,39 @@
         <v>15</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -4930,27 +5054,27 @@
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -4965,701 +5089,732 @@
         <v>15</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="105">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="60">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="45">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="20" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B33" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="60">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloequinto/Documents/SSW_555_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/SSW_555_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D38073-7F1F-9F4A-93ED-31169A11BE2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC32F32-E589-8541-8C2A-744719DC1AD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="23120" windowHeight="16840" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="4640" windowWidth="23120" windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -929,12 +928,6 @@
     <t>test_dateBeforeCurrent</t>
   </si>
   <si>
-    <t>172-179</t>
-  </si>
-  <si>
-    <t>149-153</t>
-  </si>
-  <si>
     <t>test_birthBeforeMarriage</t>
   </si>
   <si>
@@ -993,6 +986,14 @@
   </si>
   <si>
     <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>118-125</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>128-132</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1000,10 +1001,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1021,7 +1022,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1039,6 +1040,12 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1076,13 +1083,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1095,7 +1102,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,8 +1122,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,7 +1209,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1360,7 +1367,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80896723"/>
@@ -1410,7 +1417,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="33713875"/>
@@ -1449,7 +1456,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1597,7 +1604,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="44907627"/>
@@ -1648,7 +1655,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50735632"/>
@@ -2327,7 +2334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2629,7 +2636,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -2638,7 +2645,7 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2723,7 +2730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2749,6 +2756,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2770,7 +2778,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
@@ -2780,7 +2788,7 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2995,7 +3003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3065,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3093,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3261,7 +3269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3331,7 +3339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3373,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3388,6 +3396,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3401,7 +3410,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -3412,37 +3421,37 @@
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
@@ -3481,7 +3490,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
@@ -3556,7 +3565,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
@@ -3582,6 +3591,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -3596,7 +3606,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -3607,7 +3617,7 @@
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -3659,22 +3669,23 @@
         <v>58.190954773869343</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -3685,13 +3696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
@@ -3713,7 +3724,7 @@
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="14">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3798,16 +3809,16 @@
         <v>293</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>295</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
@@ -3846,7 +3857,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="3" t="s">
         <v>154</v>
       </c>
@@ -3885,7 +3896,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="3" t="s">
         <v>156</v>
       </c>
@@ -3924,7 +3935,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="3" t="s">
         <v>158</v>
       </c>
@@ -3963,7 +3974,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>160</v>
       </c>
@@ -4002,13 +4013,13 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -4046,16 +4057,16 @@
         <v>294</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
@@ -4094,7 +4105,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="3" t="s">
         <v>165</v>
       </c>
@@ -4133,7 +4144,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -4172,11 +4183,11 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -4211,19 +4222,19 @@
         <v>285</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>194</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4259,7 +4270,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -4295,7 +4306,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -4331,12 +4342,12 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="17" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4362,16 +4373,16 @@
         <v>150</v>
       </c>
       <c r="K19" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>308</v>
-      </c>
       <c r="M19" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14">
       <c r="A20" s="3" t="s">
         <v>173</v>
       </c>
@@ -4397,13 +4408,13 @@
         <v>50</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17" ht="14">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -4429,13 +4440,13 @@
         <v>50</v>
       </c>
       <c r="K21" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
@@ -4461,18 +4472,18 @@
         <v>50</v>
       </c>
       <c r="K22" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:17" ht="22" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4498,16 +4509,16 @@
         <v>150</v>
       </c>
       <c r="K24" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="M24" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14">
       <c r="A25" s="3" t="s">
         <v>176</v>
       </c>
@@ -4533,13 +4544,13 @@
         <v>50</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:17" ht="14">
       <c r="A26" s="3" t="s">
         <v>177</v>
       </c>
@@ -4565,13 +4576,13 @@
         <v>50</v>
       </c>
       <c r="K26" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>178</v>
       </c>
@@ -4597,18 +4608,18 @@
         <v>50</v>
       </c>
       <c r="K27" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:17" ht="17" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -4643,19 +4654,19 @@
         <v>288</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>194</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>180</v>
       </c>
@@ -4687,7 +4698,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
         <v>181</v>
       </c>
@@ -4719,7 +4730,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>182</v>
       </c>
@@ -4751,13 +4762,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>184</v>
       </c>
@@ -4804,7 +4815,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>186</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>187</v>
       </c>
@@ -4880,7 +4891,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
         <v>188</v>
       </c>
@@ -4918,12 +4929,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4970,7 +4981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
         <v>197</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
         <v>199</v>
       </c>
@@ -5040,12 +5051,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -5092,7 +5103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
         <v>206</v>
       </c>
@@ -5127,7 +5138,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
         <v>208</v>
       </c>
@@ -5162,7 +5173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
         <v>210</v>
       </c>
@@ -5197,12 +5208,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>217</v>
       </c>
@@ -5284,7 +5295,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>219</v>
       </c>
@@ -5319,63 +5330,64 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="14">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="14">
       <c r="B54" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="C56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="14">
       <c r="B58" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="C59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="C60" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="61" spans="1:12">
+      <c r="C61" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>317</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5389,12 +5401,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5424,6 +5436,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5437,12 +5450,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5472,6 +5485,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5485,12 +5499,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5520,6 +5534,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5533,7 +5548,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -5541,7 +5556,7 @@
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5552,7 +5567,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="85">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="51">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -5580,7 +5595,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="85">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5605,7 +5620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5616,7 +5631,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="51">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5630,7 +5645,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="136">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5644,7 +5659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="85">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="85">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5666,7 +5681,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="102">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5677,7 +5692,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="68">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -5688,7 +5703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="119" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="119">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -5699,7 +5714,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="170" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="170">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5710,7 +5725,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="68">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -5721,7 +5736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="51">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5732,7 +5747,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="51">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5743,7 +5758,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="51">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -5765,7 +5780,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="51">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -5776,7 +5791,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="68">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -5787,7 +5802,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="68">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5798,7 +5813,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -5809,7 +5824,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="102" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="85">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5820,7 +5835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="102">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5831,7 +5846,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="85">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5842,7 +5857,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="356" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="356">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -5853,7 +5868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="51">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5864,7 +5879,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="68">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -5875,7 +5890,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="51">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5886,7 +5901,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="51">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="68">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="51">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -5922,7 +5937,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="85">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -5933,7 +5948,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="102" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="102">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -5944,7 +5959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="68">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -5955,7 +5970,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="68">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -5966,7 +5981,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="85">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -5977,7 +5992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="85">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -5988,7 +6003,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="85">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -5999,7 +6014,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="68">
       <c r="A41" t="s">
         <v>269</v>
       </c>
@@ -6010,7 +6025,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="68">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -6021,7 +6036,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="85" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="85">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -6033,6 +6048,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/SSW_555_Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC32F32-E589-8541-8C2A-744719DC1AD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="4640" windowWidth="23120" windowHeight="16480" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14600" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="130407" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,810 +27,15 @@
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="318">
-  <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t>chloequinto</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>Mengyuan</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t>stdlibrainbow</t>
-  </si>
-  <si>
-    <t>mjw</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Wisnewski</t>
-  </si>
-  <si>
-    <t>mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t>mwisnews</t>
-  </si>
-  <si>
-    <t>rk</t>
-  </si>
-  <si>
-    <t>Rakshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar </t>
-  </si>
-  <si>
-    <t>rkumar5@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakshak10 </t>
-  </si>
-  <si>
-    <t>rz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renjie </t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>rzhou4@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou10 </t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less than 150 years old</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t>2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t>3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t>3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t>4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date </t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birthdate</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-  </si>
-  <si>
-    <t>test_multipleBirths</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>62-71</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>73-82</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="322">
   <si>
     <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
   </si>
@@ -994,41 +193,854 @@
   <si>
     <t>128-132</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>117-125</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>127-135</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_multipleBirths</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>62-71</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>73-82</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>rkumar5@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshak10 </t>
+  </si>
+  <si>
+    <t>rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renjie </t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzhou10 </t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1039,7 +1051,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1083,13 +1094,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1102,7 +1113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,11 +1133,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1207,10 +1218,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
+  <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1218,7 +1228,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1247,15 +1256,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1268,19 +1281,19 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,38 +1305,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2BE-AC4B-96CD-B85F0FB1FCF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1332,20 +1337,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="33713875"/>
-        <c:axId val="80896723"/>
+        <c:axId val="342329784"/>
+        <c:axId val="342332408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33713875"/>
+        <c:axId val="342329784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1360,28 +1361,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80896723"/>
+        <c:crossAx val="342332408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80896723"/>
+        <c:axId val="342332408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1394,8 +1394,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1410,17 +1408,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33713875"/>
+        <c:crossAx val="342329784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1454,10 +1452,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
+  <c:lang val="en-US"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1465,7 +1462,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1494,15 +1490,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1538,29 +1538,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B015-9147-AF7E-8D29800168CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1569,20 +1561,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="50735632"/>
-        <c:axId val="44907627"/>
+        <c:axId val="343961736"/>
+        <c:axId val="167307032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50735632"/>
+        <c:axId val="343961736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1597,17 +1585,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44907627"/>
+        <c:crossAx val="167307032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,11 +1603,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44907627"/>
+        <c:axId val="167307032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1632,8 +1619,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1648,17 +1633,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50735632"/>
+        <c:crossAx val="343961736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,7 +1696,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1732,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1838,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1925,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2012,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2118,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2205,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2297,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2428,7 +2413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2622,221 +2607,226 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2844,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2861,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2878,16 +2868,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2895,16 +2885,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2912,16 +2902,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2929,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2946,16 +2936,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2963,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2980,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2994,13 +2984,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3008,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3022,13 +3012,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3036,13 +3026,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3050,13 +3040,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3064,13 +3054,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3078,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3092,13 +3082,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3106,13 +3096,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3120,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3134,13 +3124,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3148,13 +3138,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3162,13 +3152,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3176,13 +3166,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3190,13 +3180,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3204,13 +3194,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3218,13 +3208,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3232,13 +3222,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3246,13 +3236,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3260,13 +3250,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3274,13 +3264,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3288,13 +3278,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3302,13 +3292,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3316,13 +3306,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3330,13 +3320,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3344,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3358,13 +3348,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3372,13 +3362,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3386,97 +3376,102 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3492,7 +3487,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3517,7 +3512,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3542,7 +3537,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3567,7 +3562,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3591,55 +3586,60 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3671,118 +3671,123 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="13"/>
+    <col min="11" max="11" width="8.85546875" style="13"/>
     <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3800,36 +3805,36 @@
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3847,28 +3852,28 @@
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3886,28 +3891,28 @@
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3925,28 +3930,28 @@
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3964,10 +3969,10 @@
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="18"/>
@@ -3976,16 +3981,16 @@
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4003,10 +4008,10 @@
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="M7" s="18"/>
       <c r="O7" s="18"/>
@@ -4019,18 +4024,18 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4048,36 +4053,36 @@
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -4095,28 +4100,28 @@
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="M10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -4134,28 +4139,28 @@
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="M11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -4173,10 +4178,10 @@
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="M12" s="18"/>
       <c r="O12" s="18"/>
@@ -4189,16 +4194,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -4216,36 +4221,36 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4263,25 +4268,25 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4299,25 +4304,25 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -4335,10 +4340,10 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -4349,16 +4354,16 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -4372,28 +4377,40 @@
       <c r="H19">
         <v>150</v>
       </c>
+      <c r="I19" s="5">
+        <v>42057</v>
+      </c>
       <c r="K19" s="18" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="14">
+        <v>41</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4407,25 +4424,28 @@
       <c r="H20">
         <v>50</v>
       </c>
+      <c r="I20" s="5">
+        <v>42057</v>
+      </c>
       <c r="K20" s="18" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4439,25 +4459,28 @@
       <c r="H21">
         <v>50</v>
       </c>
+      <c r="I21" s="5">
+        <v>42057</v>
+      </c>
       <c r="K21" s="18" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -4471,11 +4494,14 @@
       <c r="H22">
         <v>50</v>
       </c>
+      <c r="I22" s="5">
+        <v>42057</v>
+      </c>
       <c r="K22" s="18" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="22" customHeight="1">
@@ -4485,16 +4511,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -4508,28 +4534,40 @@
       <c r="H24">
         <v>150</v>
       </c>
+      <c r="I24" s="5">
+        <v>42058</v>
+      </c>
       <c r="K24" s="18" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14">
+        <v>42</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -4543,25 +4581,28 @@
       <c r="H25">
         <v>50</v>
       </c>
+      <c r="I25" s="5">
+        <v>42058</v>
+      </c>
       <c r="K25" s="18" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -4575,25 +4616,28 @@
       <c r="H26">
         <v>50</v>
       </c>
+      <c r="I26" s="5">
+        <v>42058</v>
+      </c>
       <c r="K26" s="18" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -4607,11 +4651,14 @@
       <c r="H27">
         <v>50</v>
       </c>
+      <c r="I27" s="5">
+        <v>42058</v>
+      </c>
       <c r="K27" s="18" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" customHeight="1">
@@ -4621,16 +4668,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -4648,36 +4695,36 @@
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -4692,24 +4739,24 @@
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -4724,24 +4771,24 @@
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -4756,10 +4803,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4770,16 +4817,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -4794,39 +4841,39 @@
         <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -4841,30 +4888,30 @@
         <v>60</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -4879,30 +4926,30 @@
         <v>60</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -4917,16 +4964,16 @@
         <v>60</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4936,16 +4983,16 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -4960,39 +5007,39 @@
         <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -5007,27 +5054,27 @@
         <v>120</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -5042,13 +5089,13 @@
         <v>120</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5058,16 +5105,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -5082,39 +5129,39 @@
         <v>110</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -5129,27 +5176,27 @@
         <v>110</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -5164,27 +5211,27 @@
         <v>110</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -5199,13 +5246,13 @@
         <v>110</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5215,16 +5262,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E48">
         <v>40</v>
@@ -5239,39 +5286,39 @@
         <v>15</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5286,27 +5333,27 @@
         <v>15</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5321,13 +5368,13 @@
         <v>15</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5335,721 +5382,747 @@
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="14">
+    <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" t="s">
-        <v>315</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="85">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="85">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="136">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="85">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="105">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="85">
-      <c r="A10" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="102">
-      <c r="A11" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68">
-      <c r="A12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="119">
-      <c r="A13" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="170">
-      <c r="A14" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="60">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="45">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="68">
-      <c r="A15" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51">
-      <c r="A16" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51">
-      <c r="A18" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34">
-      <c r="A19" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
+      <c r="A34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51">
-      <c r="A20" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="60">
+      <c r="A35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="45">
+      <c r="A36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="68">
-      <c r="A21" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="45">
+      <c r="A37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="68">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="68">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="85">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="102">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="85">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="356">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="51">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="68">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="51">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="51">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="68">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="51">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="85">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="102">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="68">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="68">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="85">
+    </row>
+    <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr date1904="1" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,507 +32,507 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="321">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chloequinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengyuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stdlibrainbow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisnewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwisnews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakshak</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="362">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
   </si>
   <si>
     <t xml:space="preserve">Kumar </t>
   </si>
   <si>
-    <t xml:space="preserve">rkumar5@stevens.edu</t>
+    <t>rkumar5@stevens.edu</t>
   </si>
   <si>
     <t xml:space="preserve">rakshak10 </t>
   </si>
   <si>
-    <t xml:space="preserve">rz</t>
+    <t>rz</t>
   </si>
   <si>
     <t xml:space="preserve">Renjie </t>
   </si>
   <si>
-    <t xml:space="preserve">Zhou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou4@stevens.edu</t>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
   </si>
   <si>
     <t xml:space="preserve">rzhou10 </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test lines</t>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
   </si>
   <si>
     <t xml:space="preserve">Dates before current date </t>
   </si>
   <si>
-    <t xml:space="preserve">us01.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BirthBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit_test.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_dateBeforeCurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118-125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birthdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store marriage date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store divorce date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01.04</t>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>140-169</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_dateBeforeCurrent</t>
+  </si>
+  <si>
+    <t>118-125</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
   </si>
   <si>
     <t xml:space="preserve">Store death date </t>
   </si>
   <si>
-    <t xml:space="preserve">T01.05</t>
+    <t>T01.05</t>
   </si>
   <si>
     <t xml:space="preserve">Compare dates to current date </t>
@@ -537,139 +541,139 @@
     <t xml:space="preserve">US02 </t>
   </si>
   <si>
-    <t xml:space="preserve">us02.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BirthBeforeMarriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_birthBeforeMarriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us03.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testbirthBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53-73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date to death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us04.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us04.marriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testmarriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134-142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T04.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us05.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us05.marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testmarriageBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144-152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us06.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us06.divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testDivorceBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111-116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.03</t>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>128-132</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>134-142</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>29-107</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
   </si>
   <si>
     <t xml:space="preserve">Compare divorce date and death date </t>
@@ -678,363 +682,467 @@
     <t xml:space="preserve">US07 </t>
   </si>
   <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us07.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkForLessThan150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testLessThan150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkForLessThan151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkForLessThan152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T07.03</t>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>T07.03</t>
   </si>
   <si>
     <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
   </si>
   <si>
-    <t xml:space="preserve">checkForLessThan153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us32.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkMultipleBirths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testMultipleBirths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T32.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T32.02</t>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>testMultipleBirths</t>
+  </si>
+  <si>
+    <t>74-83</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
   </si>
   <si>
     <t xml:space="preserve">Compare birth dates </t>
   </si>
   <si>
-    <t xml:space="preserve">us16.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sameLastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103-109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the person is male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us29.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testDeaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the person is deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store name if deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slack chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doodle Plannings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last minute integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifying each other's .ged files without consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not asking for help right away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More communication if someone needs help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>103-109</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store Spouses' Birthdays</t>
+  </si>
+  <si>
+    <t>Compare to 14</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Check for multiple births</t>
+  </si>
+  <si>
+    <t>Compare to 5</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Check how many children are in one family</t>
+  </si>
+  <si>
+    <t>Compare to 15</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Check if spouses are siblings</t>
+  </si>
+  <si>
+    <t>T19.01</t>
+  </si>
+  <si>
+    <t>Get Spouse's parents</t>
+  </si>
+  <si>
+    <t>Get other spouse's parents</t>
+  </si>
+  <si>
+    <t>T19.02</t>
+  </si>
+  <si>
+    <t>T19.03</t>
+  </si>
+  <si>
+    <t>Check if they are related</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>Check role in relationship</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Check if right gender</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check for duplicates</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Check corresponding entries</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>Check if living</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>Check if married</t>
+  </si>
+  <si>
+    <t>T31.03</t>
+  </si>
+  <si>
+    <t>Store to list</t>
+  </si>
+  <si>
+    <t>T35.01</t>
+  </si>
+  <si>
+    <t>Check if birth date close to current</t>
+  </si>
+  <si>
+    <t>T35.02</t>
+  </si>
+  <si>
+    <t>Store date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="M/D"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
@@ -1049,26 +1157,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1086,7 +1192,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1094,133 +1200,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1279,17 +1314,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1297,12 +1352,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1312,45 +1364,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/6/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/19/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7/31/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1373,14 +1435,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3882-40DC-9AC2-16AA8C3FEC0C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1389,17 +1461,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="70594587"/>
         <c:axId val="69682197"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="70594587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1416,21 +1489,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69682197"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="69682197"/>
         <c:scaling>
@@ -1465,13 +1539,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="70594587"/>
@@ -1480,7 +1555,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1489,24 +1564,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1514,12 +1599,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1529,25 +1611,37 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2/11/2019 (Start)</c:v>
                 </c:pt>
@@ -1562,9 +1656,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4/8/2019 (Sprint 4)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1581,23 +1672,24 @@
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-657E-4E26-B70C-DF82EB151CAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1606,6 +1698,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="63599449"/>
         <c:axId val="68853745"/>
       </c:lineChart>
@@ -1616,7 +1709,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1633,13 +1726,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68853745"/>
@@ -1647,6 +1741,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="68853745"/>
@@ -1682,13 +1777,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="63599449"/>
@@ -1697,7 +1793,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1706,20 +1802,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1733,14 +1835,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3627720"/>
-        <a:ext cx="4914720" cy="2669040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1763,9 +1865,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1782,11 +1884,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1806,7 +1908,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1814,15 +1917,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1833,15 +1936,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1862,9 +1965,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1881,11 +1984,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1905,7 +2008,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1913,15 +2017,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1942,9 +2046,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1961,11 +2065,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1985,7 +2089,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1993,15 +2098,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2022,9 +2127,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2041,11 +2146,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2065,7 +2170,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2073,15 +2179,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2092,15 +2198,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2121,9 +2227,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2140,11 +2246,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2164,7 +2270,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2172,15 +2279,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2201,9 +2308,9 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2220,11 +2327,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2244,7 +2351,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2252,15 +2360,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2272,7 +2380,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2286,14 +2394,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="1481400"/>
-        <a:ext cx="5345280" cy="2669040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2306,27 +2414,285 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="I50 E12"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" activeCellId="1" sqref="I50 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,48 +2709,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2394,7 +2760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2411,7 +2777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2428,55 +2794,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="cquinto@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId2" display="mwang60@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId3" display="mwisnews@stevens.edu"/>
-    <hyperlink ref="E5" r:id="rId4" display="mwisnews"/>
-    <hyperlink ref="D6" r:id="rId5" display="rkumar5@stevens.edu"/>
-    <hyperlink ref="D7" r:id="rId6" display="rzhou4@stevens.edu"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="I50 E14"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="6.61328125" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="6.61328125" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2493,8 +2851,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2510,8 +2868,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2527,8 +2885,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2544,8 +2902,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2561,8 +2919,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2578,8 +2936,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2595,8 +2953,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2612,8 +2970,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2629,8 +2987,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2646,8 +3004,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2663,490 +3021,482 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="I50 E7"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" activeCellId="1" sqref="I50 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3169,157 +3519,149 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="6">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="6" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="6">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="6">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="6" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="6">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="I50 F3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" activeCellId="1" sqref="I50 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.61328125" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
@@ -3339,101 +3681,93 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>965</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>995</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <f aca="false">(D3-D2)/E3*60</f>
-        <v>58.1909547738693</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="6">
+        <f>(D3-D2)/E3*60</f>
+        <v>58.190954773869343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="37.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="13" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="13" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="13" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="13" width="1.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="13" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="13" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
+    <col min="1" max="1" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" style="13"/>
+    <col min="12" max="12" width="24" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="17" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
+    <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3480,7 +3814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3493,19 +3827,19 @@
       <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>150</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>190</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -3527,7 +3861,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
@@ -3540,19 +3874,19 @@
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>38</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
@@ -3566,7 +3900,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
@@ -3579,19 +3913,19 @@
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>38</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
@@ -3605,7 +3939,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -3618,19 +3952,19 @@
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5">
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
@@ -3644,7 +3978,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -3657,19 +3991,19 @@
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>38</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
@@ -3683,7 +4017,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>166</v>
       </c>
@@ -3696,19 +4030,19 @@
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>38</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
@@ -3722,13 +4056,13 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -3738,22 +4072,22 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>100</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>170</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
@@ -3775,7 +4109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>174</v>
       </c>
@@ -3785,22 +4119,22 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -3814,7 +4148,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>176</v>
       </c>
@@ -3824,22 +4158,22 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>70</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>25</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5">
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
@@ -3853,7 +4187,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>177</v>
       </c>
@@ -3863,22 +4197,22 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>40</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
@@ -3892,11 +4226,11 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3906,22 +4240,22 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>80</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>60</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>120</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5">
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -3943,8 +4277,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>184</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -3953,22 +4287,22 @@
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>40</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>50</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="5">
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
@@ -3979,8 +4313,8 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3989,22 +4323,22 @@
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>20</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5">
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
@@ -4015,8 +4349,8 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>187</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4025,22 +4359,22 @@
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>40</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>20</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5">
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
@@ -4051,12 +4385,12 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4066,22 +4400,22 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>80</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>114</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>150</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="5">
         <v>42056</v>
       </c>
       <c r="K19" s="18" t="s">
@@ -4103,7 +4437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>194</v>
       </c>
@@ -4113,22 +4447,22 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>50</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>50</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="5">
         <v>42056</v>
       </c>
       <c r="K20" s="18" t="s">
@@ -4138,7 +4472,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>195</v>
       </c>
@@ -4148,22 +4482,22 @@
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>50</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>50</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5">
         <v>42056</v>
       </c>
       <c r="K21" s="18" t="s">
@@ -4173,7 +4507,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>196</v>
       </c>
@@ -4183,22 +4517,22 @@
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>40</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>14</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>50</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="5">
         <v>42056</v>
       </c>
       <c r="K22" s="18" t="s">
@@ -4208,12 +4542,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4223,22 +4557,22 @@
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>80</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>60</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>118</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>150</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5">
         <v>42057</v>
       </c>
       <c r="K24" s="18" t="s">
@@ -4260,7 +4594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>202</v>
       </c>
@@ -4270,22 +4604,22 @@
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>20</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>50</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>50</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="5">
         <v>42057</v>
       </c>
       <c r="K25" s="18" t="s">
@@ -4295,7 +4629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>203</v>
       </c>
@@ -4305,22 +4639,22 @@
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>20</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>50</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>50</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="5">
         <v>42057</v>
       </c>
       <c r="K26" s="18" t="s">
@@ -4330,7 +4664,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>204</v>
       </c>
@@ -4340,22 +4674,22 @@
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>40</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>18</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>50</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="5">
         <v>42057</v>
       </c>
       <c r="K27" s="18" t="s">
@@ -4365,12 +4699,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -4380,22 +4714,22 @@
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>80</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>60</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>114</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>120</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="5">
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
@@ -4417,7 +4751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>211</v>
       </c>
@@ -4427,19 +4761,19 @@
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>20</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>20</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>50</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
@@ -4449,7 +4783,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>212</v>
       </c>
@@ -4462,16 +4796,16 @@
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>20</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>44</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
@@ -4481,7 +4815,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>213</v>
       </c>
@@ -4494,16 +4828,16 @@
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>40</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>20</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>20</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
@@ -4513,13 +4847,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>215</v>
       </c>
@@ -4529,22 +4863,22 @@
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>80</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>60</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>25</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>60</v>
       </c>
-      <c r="I34" s="20" t="n">
+      <c r="I34" s="20">
         <v>42052</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -4566,7 +4900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>222</v>
       </c>
@@ -4576,22 +4910,22 @@
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>20</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>25</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>60</v>
       </c>
-      <c r="I35" s="20" t="n">
+      <c r="I35" s="20">
         <v>42052</v>
       </c>
       <c r="K35" s="13" t="s">
@@ -4604,7 +4938,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>225</v>
       </c>
@@ -4617,19 +4951,19 @@
       <c r="D36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>20</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>20</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>25</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>60</v>
       </c>
-      <c r="I36" s="20" t="n">
+      <c r="I36" s="20">
         <v>42052</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -4642,7 +4976,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -4655,19 +4989,19 @@
       <c r="D37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>40</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>20</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>25</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37">
         <v>60</v>
       </c>
-      <c r="I37" s="20" t="n">
+      <c r="I37" s="20">
         <v>42052</v>
       </c>
       <c r="K37" s="13" t="s">
@@ -4680,12 +5014,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4695,22 +5029,22 @@
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>100</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>90</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>86</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39">
         <v>120</v>
       </c>
-      <c r="I39" s="20" t="n">
+      <c r="I39" s="20">
         <v>42052</v>
       </c>
       <c r="K39" s="13" t="s">
@@ -4732,7 +5066,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>237</v>
       </c>
@@ -4742,22 +5076,22 @@
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>30</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>86</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40">
         <v>120</v>
       </c>
-      <c r="I40" s="20" t="n">
+      <c r="I40" s="20">
         <v>42052</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -4767,7 +5101,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>239</v>
       </c>
@@ -4780,19 +5114,19 @@
       <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>70</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>60</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>86</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41">
         <v>120</v>
       </c>
-      <c r="I41" s="20" t="n">
+      <c r="I41" s="20">
         <v>42052</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -4802,12 +5136,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -4817,22 +5151,22 @@
       <c r="C43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>120</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>120</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43">
         <v>42</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43">
         <v>110</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="5">
         <v>42051</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -4854,7 +5188,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>246</v>
       </c>
@@ -4864,22 +5198,22 @@
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>40</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>40</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>42</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44">
         <v>110</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="5">
         <v>42051</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -4889,7 +5223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>248</v>
       </c>
@@ -4902,19 +5236,19 @@
       <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>40</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>40</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>42</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45">
         <v>110</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="5">
         <v>42051</v>
       </c>
       <c r="K45" s="13" t="s">
@@ -4924,7 +5258,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>250</v>
       </c>
@@ -4934,22 +5268,22 @@
       <c r="C46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>40</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46">
         <v>40</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46">
         <v>42</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46">
         <v>110</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="5">
         <v>42051</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -4959,12 +5293,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4974,22 +5308,22 @@
       <c r="C48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>40</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>40</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>15</v>
       </c>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="5">
         <v>42051</v>
       </c>
       <c r="K48" s="13" t="s">
@@ -5011,7 +5345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -5021,22 +5355,22 @@
       <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>20</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49">
         <v>20</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>15</v>
       </c>
-      <c r="I49" s="5" t="n">
+      <c r="I49" s="5">
         <v>42051</v>
       </c>
       <c r="K49" s="13" t="s">
@@ -5046,7 +5380,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>259</v>
       </c>
@@ -5056,22 +5390,22 @@
       <c r="C50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>20</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50">
         <v>6</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>15</v>
       </c>
-      <c r="I50" s="5" t="n">
+      <c r="I50" s="5">
         <v>42051</v>
       </c>
       <c r="K50" s="13" t="s">
@@ -5081,90 +5415,84 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I50 C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="34.921875" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5193,34 +5521,515 @@
         <v>144</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2">
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17">
+        <v>130</v>
+      </c>
+      <c r="F17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <v>130</v>
+      </c>
+      <c r="F22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="23">
+        <v>100</v>
+      </c>
+      <c r="F31" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="23">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I50 C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5250,33 +6059,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I50 C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5306,36 +6107,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="I50 C18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" activeCellId="1" sqref="I50 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5346,480 +6139,480 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>216</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>317</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -5827,12 +6620,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/SSW_555_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB97594-ADC3-8A44-A8DF-B0935DBC127E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,8 +23,13 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1123,12 +1129,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1176,6 +1182,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1212,13 +1224,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1231,7 +1243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1243,7 +1255,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
@@ -1251,8 +1263,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1350,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1394,7 +1406,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1472,7 +1484,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1496,7 +1508,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69682197"/>
@@ -1546,7 +1558,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="70594587"/>
@@ -1585,7 +1597,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1733,7 +1745,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68853745"/>
@@ -1784,7 +1796,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="63599449"/>
@@ -1837,7 +1849,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1867,7 +1885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1967,7 +1991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2048,7 +2078,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2129,7 +2165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2229,7 +2271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2310,7 +2358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2396,7 +2450,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2676,23 +2736,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E12" activeCellId="1" sqref="I50 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="15.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2803,13 +2863,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2817,24 +2878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.61328125" customWidth="1"/>
-    <col min="2" max="2" width="9.61328125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2851,7 +2912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2868,7 +2929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2885,7 +2946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2902,7 +2963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2919,7 +2980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2936,7 +2997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2953,7 +3014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2970,7 +3031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2987,7 +3048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3004,7 +3065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3021,7 +3082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3035,7 +3096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3049,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3063,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3077,7 +3138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3091,7 +3152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3105,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3119,7 +3180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3133,7 +3194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3147,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3161,7 +3222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3175,7 +3236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3189,7 +3250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3203,7 +3264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3217,7 +3278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3231,7 +3292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3245,7 +3306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3259,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3273,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3287,7 +3348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3301,7 +3362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3315,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3329,7 +3390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3343,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3357,7 +3418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3371,7 +3432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3385,7 +3446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3399,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3413,7 +3474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3427,7 +3488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3442,61 +3503,62 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" activeCellId="1" sqref="I50 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3519,7 +3581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
@@ -3535,7 +3597,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
@@ -3560,7 +3622,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>132</v>
       </c>
@@ -3585,7 +3647,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
@@ -3610,7 +3672,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
@@ -3636,6 +3698,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -3643,25 +3706,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" activeCellId="1" sqref="I50 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
@@ -3681,7 +3744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
@@ -3692,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -3713,22 +3776,23 @@
         <v>58.190954773869343</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -3736,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3745,29 +3809,29 @@
       <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.84375" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="13"/>
+    <col min="11" max="11" width="11.5" style="13"/>
     <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3814,7 +3878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3861,7 +3925,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
@@ -3900,7 +3964,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
@@ -3939,7 +4003,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -3978,7 +4042,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -4017,7 +4081,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>166</v>
       </c>
@@ -4056,13 +4120,13 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -4109,7 +4173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="3" t="s">
         <v>174</v>
       </c>
@@ -4148,7 +4212,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="3" t="s">
         <v>176</v>
       </c>
@@ -4187,7 +4251,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="3" t="s">
         <v>177</v>
       </c>
@@ -4226,11 +4290,11 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -4277,7 +4341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -4313,7 +4377,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -4349,7 +4413,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -4385,12 +4449,12 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="17" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4437,7 +4501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14">
       <c r="A20" s="3" t="s">
         <v>194</v>
       </c>
@@ -4472,7 +4536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14">
       <c r="A21" s="3" t="s">
         <v>195</v>
       </c>
@@ -4507,7 +4571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>196</v>
       </c>
@@ -4542,12 +4606,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="22" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4594,7 +4658,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14">
       <c r="A25" s="3" t="s">
         <v>202</v>
       </c>
@@ -4629,7 +4693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14">
       <c r="A26" s="3" t="s">
         <v>203</v>
       </c>
@@ -4664,7 +4728,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>204</v>
       </c>
@@ -4699,12 +4763,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="17" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -4751,7 +4815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>211</v>
       </c>
@@ -4783,7 +4847,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
         <v>212</v>
       </c>
@@ -4815,7 +4879,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>213</v>
       </c>
@@ -4847,13 +4911,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>215</v>
       </c>
@@ -4900,7 +4964,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>222</v>
       </c>
@@ -4938,7 +5002,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>225</v>
       </c>
@@ -4976,7 +5040,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -5014,12 +5078,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5066,7 +5130,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
         <v>237</v>
       </c>
@@ -5101,7 +5165,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
         <v>239</v>
       </c>
@@ -5136,12 +5200,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -5188,7 +5252,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
         <v>246</v>
       </c>
@@ -5223,7 +5287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
         <v>248</v>
       </c>
@@ -5258,7 +5322,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
         <v>250</v>
       </c>
@@ -5293,12 +5357,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -5345,7 +5409,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>257</v>
       </c>
@@ -5380,7 +5444,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>259</v>
       </c>
@@ -5415,21 +5479,21 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14">
       <c r="B54" s="14" t="s">
         <v>262</v>
       </c>
@@ -5437,18 +5501,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="C56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14">
       <c r="B58" s="14" t="s">
         <v>266</v>
       </c>
@@ -5456,43 +5520,44 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="C59" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="C60" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="C61" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="34.921875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5521,7 +5586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -5541,7 +5606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -5558,7 +5623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
         <v>323</v>
       </c>
@@ -5575,7 +5640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
@@ -5595,7 +5660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="23" t="s">
         <v>326</v>
       </c>
@@ -5609,7 +5674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="23" t="s">
         <v>327</v>
       </c>
@@ -5623,7 +5688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="22" t="s">
         <v>62</v>
       </c>
@@ -5643,7 +5708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="23" t="s">
         <v>330</v>
       </c>
@@ -5657,7 +5722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="23" t="s">
         <v>331</v>
       </c>
@@ -5671,10 +5736,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="22" t="s">
         <v>64</v>
       </c>
@@ -5694,7 +5759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="23" t="s">
         <v>334</v>
       </c>
@@ -5708,7 +5773,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="22" t="s">
         <v>66</v>
       </c>
@@ -5728,7 +5793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="23" t="s">
         <v>336</v>
       </c>
@@ -5742,7 +5807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>339</v>
       </c>
@@ -5756,7 +5821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
         <v>340</v>
       </c>
@@ -5770,7 +5835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
@@ -5790,7 +5855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>342</v>
       </c>
@@ -5804,7 +5869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="23" t="s">
         <v>344</v>
       </c>
@@ -5818,7 +5883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="22" t="s">
         <v>70</v>
       </c>
@@ -5838,7 +5903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
         <v>346</v>
       </c>
@@ -5852,7 +5917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="23" t="s">
         <v>348</v>
       </c>
@@ -5866,7 +5931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="22" t="s">
         <v>72</v>
       </c>
@@ -5886,7 +5951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="s">
         <v>350</v>
       </c>
@@ -5900,7 +5965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="22" t="s">
         <v>74</v>
       </c>
@@ -5920,7 +5985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="s">
         <v>352</v>
       </c>
@@ -5934,7 +5999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="23" t="s">
         <v>354</v>
       </c>
@@ -5948,7 +6013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="23" t="s">
         <v>356</v>
       </c>
@@ -5962,7 +6027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="22" t="s">
         <v>76</v>
       </c>
@@ -5982,7 +6047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>358</v>
       </c>
@@ -5996,7 +6061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="23" t="s">
         <v>360</v>
       </c>
@@ -6011,25 +6076,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6059,25 +6125,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6107,28 +6174,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" activeCellId="1" sqref="I50 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6139,7 +6207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="85">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6153,7 +6221,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="51">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -6167,7 +6235,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6249,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="85">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -6192,7 +6260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6203,7 +6271,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="51">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6217,7 +6285,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="136">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -6231,7 +6299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="85">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -6242,7 +6310,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="85">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -6253,7 +6321,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="102">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -6264,7 +6332,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="68">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6275,7 +6343,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="119">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6286,7 +6354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="170">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -6297,7 +6365,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="68">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -6308,7 +6376,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="51">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6319,7 +6387,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="51">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -6330,7 +6398,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="51">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -6341,7 +6409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6352,7 +6420,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="51">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -6363,7 +6431,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="68">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -6374,7 +6442,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="68">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6385,7 +6453,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -6396,7 +6464,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="85">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -6407,7 +6475,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="102">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -6418,7 +6486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="85">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -6429,7 +6497,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="356">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -6440,7 +6508,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="51">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -6451,7 +6519,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="68">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -6462,7 +6530,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="51">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -6473,7 +6541,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="51">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -6484,7 +6552,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="68">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -6495,7 +6563,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="51">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -6509,7 +6577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="85">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -6520,7 +6588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="102">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -6531,7 +6599,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="68">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -6542,7 +6610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="68">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -6553,7 +6621,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="85">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -6564,7 +6632,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="85">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -6575,7 +6643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="85">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -6586,7 +6654,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="68">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -6597,7 +6665,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="68">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -6608,7 +6676,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="85">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -6620,6 +6688,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/SSW_555_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\SSW_555_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB97594-ADC3-8A44-A8DF-B0935DBC127E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="391">
   <si>
     <t>Initials</t>
   </si>
@@ -1124,15 +1123,102 @@
   </si>
   <si>
     <t>Store date</t>
+  </si>
+  <si>
+    <t>us10.py</t>
+  </si>
+  <si>
+    <t>us10.checkIndividuals</t>
+  </si>
+  <si>
+    <t>44-56</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>us15.py</t>
+  </si>
+  <si>
+    <t>us15.checkFewerThan15</t>
+  </si>
+  <si>
+    <t>lines 4-15</t>
+  </si>
+  <si>
+    <t>us21.py</t>
+  </si>
+  <si>
+    <t>us21.checkGenderForRole</t>
+  </si>
+  <si>
+    <t>98-106</t>
+  </si>
+  <si>
+    <t>testGenderForRole</t>
+  </si>
+  <si>
+    <t>testUS10</t>
+  </si>
+  <si>
+    <t>141-146</t>
+  </si>
+  <si>
+    <t>us22.py</t>
+  </si>
+  <si>
+    <t>us22.uniqueIDs</t>
+  </si>
+  <si>
+    <t>Lines 6-39</t>
+  </si>
+  <si>
+    <t>us26.py</t>
+  </si>
+  <si>
+    <t>us26.corrEntries</t>
+  </si>
+  <si>
+    <t>Lines 9-50</t>
+  </si>
+  <si>
+    <t>us31.py</t>
+  </si>
+  <si>
+    <t>us31.checkForLivingSingle</t>
+  </si>
+  <si>
+    <t>Lines 6-14</t>
+  </si>
+  <si>
+    <t>testUS31</t>
+  </si>
+  <si>
+    <t>147-155</t>
+  </si>
+  <si>
+    <t>us35.py</t>
+  </si>
+  <si>
+    <t>us35.RecentBirths</t>
+  </si>
+  <si>
+    <t>134-147</t>
+  </si>
+  <si>
+    <t>testRecentBirths</t>
+  </si>
+  <si>
+    <t>136-139</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1216,7 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1224,13 +1310,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1243,7 +1329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1255,16 +1341,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1438,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1406,7 +1494,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1484,7 +1572,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1508,7 +1596,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69682197"/>
@@ -1558,7 +1646,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="70594587"/>
@@ -1597,7 +1685,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1745,7 +1833,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68853745"/>
@@ -1796,7 +1884,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="63599449"/>
@@ -2736,19 +2824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E12" activeCellId="1" sqref="I50 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2865,12 +2953,12 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2878,20 +2966,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69140625" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2912,7 +3000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2929,7 +3017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3510,21 +3598,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" activeCellId="1" sqref="I50 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3706,21 +3794,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" activeCellId="1" sqref="I50 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3800,38 +3888,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="13"/>
+    <col min="11" max="11" width="11.4609375" style="13"/>
     <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3878,7 +3966,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3925,7 +4013,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
@@ -3964,7 +4052,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
@@ -4003,7 +4091,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -4042,7 +4130,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -4126,7 +4214,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -4173,7 +4261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>174</v>
       </c>
@@ -4212,7 +4300,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>176</v>
       </c>
@@ -4251,7 +4339,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>177</v>
       </c>
@@ -4341,7 +4429,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -4377,7 +4465,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -4501,7 +4589,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14">
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
         <v>194</v>
       </c>
@@ -4536,7 +4624,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14">
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>195</v>
       </c>
@@ -4658,7 +4746,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14">
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>202</v>
       </c>
@@ -4693,7 +4781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14">
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>203</v>
       </c>
@@ -5484,7 +5572,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
         <v>261</v>
@@ -5493,7 +5581,7 @@
     <row r="53" spans="1:12">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="14">
+    <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
         <v>262</v>
       </c>
@@ -5512,7 +5600,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14">
+    <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
         <v>266</v>
       </c>
@@ -5543,21 +5631,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="K31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="1025" width="11" customWidth="1"/>
+    <col min="3" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="21.07421875" customWidth="1"/>
+    <col min="13" max="13" width="13.07421875" customWidth="1"/>
+    <col min="14" max="14" width="2.765625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="15.69140625" customWidth="1"/>
+    <col min="17" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5585,8 +5679,27 @@
       <c r="I1" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -5605,8 +5718,35 @@
       <c r="F2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" t="s">
+        <v>364</v>
+      </c>
+      <c r="O2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -5614,7 +5754,7 @@
         <v>324</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -5622,8 +5762,20 @@
       <c r="F3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
         <v>323</v>
       </c>
@@ -5631,7 +5783,7 @@
         <v>325</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -5639,8 +5791,20 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
@@ -5660,7 +5824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
         <v>326</v>
       </c>
@@ -5674,7 +5838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:17">
       <c r="A8" s="23" t="s">
         <v>327</v>
       </c>
@@ -5688,7 +5852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:17">
       <c r="A10" s="22" t="s">
         <v>62</v>
       </c>
@@ -5699,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>110</v>
@@ -5707,39 +5871,90 @@
       <c r="F10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K10" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="O10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="23" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>332</v>
       </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
       <c r="E11">
         <v>60</v>
       </c>
       <c r="F11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="23" t="s">
         <v>331</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>333</v>
       </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
       <c r="E12">
         <v>50</v>
       </c>
       <c r="F12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>366</v>
+      </c>
+      <c r="L12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:17">
       <c r="A14" s="22" t="s">
         <v>64</v>
       </c>
@@ -5759,7 +5974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
         <v>334</v>
       </c>
@@ -5773,7 +5988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:17">
       <c r="A17" s="22" t="s">
         <v>66</v>
       </c>
@@ -5793,7 +6008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:17">
       <c r="A18" s="23" t="s">
         <v>336</v>
       </c>
@@ -5807,7 +6022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:17">
       <c r="A19" s="23" t="s">
         <v>339</v>
       </c>
@@ -5821,7 +6036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:17">
       <c r="A20" s="23" t="s">
         <v>340</v>
       </c>
@@ -5835,7 +6050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:17">
       <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
@@ -5846,7 +6061,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>130</v>
@@ -5854,36 +6069,93 @@
       <c r="F22">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>114</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K22" t="s">
+        <v>369</v>
+      </c>
+      <c r="L22" t="s">
+        <v>370</v>
+      </c>
+      <c r="M22" t="s">
+        <v>371</v>
+      </c>
+      <c r="O22" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="23" t="s">
         <v>342</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>343</v>
       </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
       <c r="E23">
         <v>65</v>
       </c>
       <c r="F23">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>369</v>
+      </c>
+      <c r="L23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="23" t="s">
         <v>344</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>345</v>
       </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
       <c r="E24">
         <v>65</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G24">
+        <v>57</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>369</v>
+      </c>
+      <c r="L24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="22" t="s">
         <v>70</v>
       </c>
@@ -5894,7 +6166,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -5902,36 +6174,87 @@
       <c r="F26">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>70</v>
+      </c>
+      <c r="I26" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K26" t="s">
+        <v>375</v>
+      </c>
+      <c r="L26" t="s">
+        <v>376</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="O26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="23" t="s">
         <v>346</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>347</v>
       </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
       <c r="E27">
         <v>60</v>
       </c>
       <c r="F27">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s">
+        <v>375</v>
+      </c>
+      <c r="L27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="23" t="s">
         <v>348</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>349</v>
       </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
       <c r="E28">
         <v>40</v>
       </c>
       <c r="F28">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="22" t="s">
         <v>72</v>
       </c>
@@ -5942,7 +6265,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -5950,22 +6273,58 @@
       <c r="F30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K30" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" t="s">
+        <v>380</v>
+      </c>
+      <c r="O30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="23" customFormat="1">
       <c r="A31" s="23" t="s">
         <v>350</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>351</v>
       </c>
+      <c r="D31" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="23">
         <v>100</v>
       </c>
       <c r="F31" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G31" s="23">
+        <v>50</v>
+      </c>
+      <c r="H31" s="23">
+        <v>70</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="L31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="22" t="s">
         <v>74</v>
       </c>
@@ -5976,7 +6335,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>80</v>
@@ -5984,50 +6343,122 @@
       <c r="F33">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K33" t="s">
+        <v>381</v>
+      </c>
+      <c r="L33" t="s">
+        <v>382</v>
+      </c>
+      <c r="M33" t="s">
+        <v>383</v>
+      </c>
+      <c r="O33" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="23" t="s">
         <v>352</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>353</v>
       </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>381</v>
+      </c>
+      <c r="L34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="23" t="s">
         <v>354</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>355</v>
       </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>381</v>
+      </c>
+      <c r="L35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="23" t="s">
         <v>356</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>357</v>
       </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
       <c r="E36" s="23">
         <v>20</v>
       </c>
       <c r="F36">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>381</v>
+      </c>
+      <c r="L36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="22" t="s">
         <v>76</v>
       </c>
@@ -6038,7 +6469,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>80</v>
@@ -6046,33 +6477,90 @@
       <c r="F38">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>155</v>
+      </c>
+      <c r="H38">
+        <v>60</v>
+      </c>
+      <c r="I38" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K38" t="s">
+        <v>386</v>
+      </c>
+      <c r="L38" t="s">
+        <v>387</v>
+      </c>
+      <c r="M38" t="s">
+        <v>388</v>
+      </c>
+      <c r="O38" t="s">
+        <v>155</v>
+      </c>
+      <c r="P38" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="23" t="s">
         <v>358</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>359</v>
       </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
       <c r="E39">
         <v>40</v>
       </c>
       <c r="F39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>386</v>
+      </c>
+      <c r="L39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="23" t="s">
         <v>360</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>361</v>
       </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
       <c r="E40">
         <v>40</v>
       </c>
       <c r="F40">
         <v>25</v>
+      </c>
+      <c r="G40">
+        <v>55</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6083,19 +6571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6132,19 +6620,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6181,22 +6669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" activeCellId="1" sqref="I50 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6207,7 +6695,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6221,7 +6709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -6235,7 +6723,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -6249,7 +6737,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="85">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -6260,7 +6748,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6271,7 +6759,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6285,7 +6773,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="136">
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -6299,7 +6787,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="85">
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -6310,7 +6798,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -6321,7 +6809,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="102">
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -6332,7 +6820,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6343,7 +6831,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="119">
+    <row r="13" spans="1:4" ht="75">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6354,7 +6842,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="170">
+    <row r="14" spans="1:4" ht="105">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -6365,7 +6853,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="68">
+    <row r="15" spans="1:4" ht="45">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -6376,7 +6864,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6387,7 +6875,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -6398,7 +6886,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -6409,7 +6897,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6420,7 +6908,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -6431,7 +6919,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="68">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -6442,7 +6930,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="68">
+    <row r="22" spans="1:3" ht="45">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6453,7 +6941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68">
+    <row r="23" spans="1:3" ht="45">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -6464,7 +6952,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="85">
+    <row r="24" spans="1:3" ht="60">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -6475,7 +6963,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="102">
+    <row r="25" spans="1:3" ht="75">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -6486,7 +6974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="85">
+    <row r="26" spans="1:3" ht="45">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -6497,7 +6985,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="356">
+    <row r="27" spans="1:3" ht="195">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -6508,7 +6996,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51">
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -6519,7 +7007,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="68">
+    <row r="29" spans="1:3" ht="45">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -6530,7 +7018,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51">
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -6541,7 +7029,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51">
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -6552,7 +7040,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="68">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -6563,7 +7051,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -6577,7 +7065,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="85">
+    <row r="34" spans="1:4" ht="45">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -6588,7 +7076,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="102">
+    <row r="35" spans="1:4" ht="60">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -6599,7 +7087,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68">
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -6610,7 +7098,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="68">
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -6621,7 +7109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="85">
+    <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -6632,7 +7120,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="85">
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -6643,7 +7131,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="85">
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -6654,7 +7142,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="68">
+    <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -6665,7 +7153,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="68">
+    <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -6676,7 +7164,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="85">
+    <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
         <v>116</v>
       </c>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\SSW_555_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14280" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="130407" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +27,924 @@
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="406">
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>Check role in relationship</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Check if right gender</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check for duplicates</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Check corresponding entries</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>Check if living</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>Check if married</t>
+  </si>
+  <si>
+    <t>T31.03</t>
+  </si>
+  <si>
+    <t>Store to list</t>
+  </si>
+  <si>
+    <t>T35.01</t>
+  </si>
+  <si>
+    <t>Check if birth date close to current</t>
+  </si>
+  <si>
+    <t>T35.02</t>
+  </si>
+  <si>
+    <t>Store date</t>
+  </si>
+  <si>
+    <t>us10.py</t>
+  </si>
+  <si>
+    <t>us10.checkIndividuals</t>
+  </si>
+  <si>
+    <t>44-56</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>us15.py</t>
+  </si>
+  <si>
+    <t>us15.checkFewerThan15</t>
+  </si>
+  <si>
+    <t>lines 4-15</t>
+  </si>
+  <si>
+    <t>us21.py</t>
+  </si>
+  <si>
+    <t>us21.checkGenderForRole</t>
+  </si>
+  <si>
+    <t>98-106</t>
+  </si>
+  <si>
+    <t>testGenderForRole</t>
+  </si>
+  <si>
+    <t>testUS10</t>
+  </si>
+  <si>
+    <t>141-146</t>
+  </si>
+  <si>
+    <t>us22.py</t>
+  </si>
+  <si>
+    <t>us22.uniqueIDs</t>
+  </si>
+  <si>
+    <t>Lines 6-39</t>
+  </si>
+  <si>
+    <t>us26.py</t>
+  </si>
+  <si>
+    <t>us26.corrEntries</t>
+  </si>
+  <si>
+    <t>Lines 9-50</t>
+  </si>
+  <si>
+    <t>us31.py</t>
+  </si>
+  <si>
+    <t>us31.checkForLivingSingle</t>
+  </si>
+  <si>
+    <t>Lines 6-14</t>
+  </si>
+  <si>
+    <t>testUS31</t>
+  </si>
+  <si>
+    <t>147-155</t>
+  </si>
+  <si>
+    <t>us35.py</t>
+  </si>
+  <si>
+    <t>us35.RecentBirths</t>
+  </si>
+  <si>
+    <t>134-147</t>
+  </si>
+  <si>
+    <t>testRecentBirths</t>
+  </si>
+  <si>
+    <t>136-139</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if living</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store to list</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rk</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us30.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us30.checkForLivingMarried</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.siblingsCantMarry</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store Spouses' Birthdays</t>
+  </si>
+  <si>
+    <t>Compare to 14</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Check for multiple births</t>
+  </si>
+  <si>
+    <t>Compare to 5</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Check how many children are in one family</t>
+  </si>
+  <si>
+    <t>Compare to 15</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Check if spouses are siblings</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>134-142</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>29-107</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>testMultipleBirths</t>
+  </si>
+  <si>
+    <t>74-83</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>103-109</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>140-169</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_dateBeforeCurrent</t>
+  </si>
+  <si>
+    <t>118-125</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>128-132</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
   <si>
     <t>Initials</t>
   </si>
@@ -367,876 +1274,39 @@
   </si>
   <si>
     <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t>2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t>3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t>3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t>4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date </t>
-  </si>
-  <si>
-    <t>us01.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t>140-169</t>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-  </si>
-  <si>
-    <t>test_dateBeforeCurrent</t>
-  </si>
-  <si>
-    <t>118-125</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birthdate</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>us02.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>150-153</t>
-  </si>
-  <si>
-    <t>test_birthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>128-132</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>us03.py</t>
-  </si>
-  <si>
-    <t>us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t>28-88</t>
-  </si>
-  <si>
-    <t>testbirthBeforeDeath</t>
-  </si>
-  <si>
-    <t>53-73</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>us04.py</t>
-  </si>
-  <si>
-    <t>us04.marriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>29-104</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>134-142</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>us05.py</t>
-  </si>
-  <si>
-    <t>us05.marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>29-107</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>144-152</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>us06.py</t>
-  </si>
-  <si>
-    <t>us06.divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>25-105</t>
-  </si>
-  <si>
-    <t>testDivorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>111-116</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>us07.py</t>
-  </si>
-  <si>
-    <t>checkForLessThan150</t>
-  </si>
-  <si>
-    <t>32-58</t>
-  </si>
-  <si>
-    <t>testLessThan150</t>
-  </si>
-  <si>
-    <t>86-91</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>checkForLessThan151</t>
-  </si>
-  <si>
-    <t>32-59</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>checkForLessThan152</t>
-  </si>
-  <si>
-    <t>32-60</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>checkForLessThan153</t>
-  </si>
-  <si>
-    <t>32-61</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>testMultipleBirths</t>
-  </si>
-  <si>
-    <t>74-83</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>103-109</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>95-101</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meetings</t>
-  </si>
-  <si>
-    <t>Slack chat</t>
-  </si>
-  <si>
-    <t>Doodle Plannings</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Last minute integration</t>
-  </si>
-  <si>
-    <t>Modifying each other's .ged files without consent</t>
-  </si>
-  <si>
-    <t>Not asking for help right away</t>
-  </si>
-  <si>
-    <t>More communication if someone needs help</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>T10.02</t>
-  </si>
-  <si>
-    <t>Store Spouses' Birthdays</t>
-  </si>
-  <si>
-    <t>Compare to 14</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Check for multiple births</t>
-  </si>
-  <si>
-    <t>Compare to 5</t>
-  </si>
-  <si>
-    <t>T15.01</t>
-  </si>
-  <si>
-    <t>T15.02</t>
-  </si>
-  <si>
-    <t>Check how many children are in one family</t>
-  </si>
-  <si>
-    <t>Compare to 15</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t>Check if spouses are siblings</t>
-  </si>
-  <si>
-    <t>T19.01</t>
-  </si>
-  <si>
-    <t>Get Spouse's parents</t>
-  </si>
-  <si>
-    <t>Get other spouse's parents</t>
-  </si>
-  <si>
-    <t>T19.02</t>
-  </si>
-  <si>
-    <t>T19.03</t>
-  </si>
-  <si>
-    <t>Check if they are related</t>
-  </si>
-  <si>
-    <t>T21.01</t>
-  </si>
-  <si>
-    <t>Check role in relationship</t>
-  </si>
-  <si>
-    <t>T21.02</t>
-  </si>
-  <si>
-    <t>Check if right gender</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store IDs</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check for duplicates</t>
-  </si>
-  <si>
-    <t>T26.01</t>
-  </si>
-  <si>
-    <t>Check corresponding entries</t>
-  </si>
-  <si>
-    <t>T31.01</t>
-  </si>
-  <si>
-    <t>Check if living</t>
-  </si>
-  <si>
-    <t>T31.02</t>
-  </si>
-  <si>
-    <t>Check if married</t>
-  </si>
-  <si>
-    <t>T31.03</t>
-  </si>
-  <si>
-    <t>Store to list</t>
-  </si>
-  <si>
-    <t>T35.01</t>
-  </si>
-  <si>
-    <t>Check if birth date close to current</t>
-  </si>
-  <si>
-    <t>T35.02</t>
-  </si>
-  <si>
-    <t>Store date</t>
-  </si>
-  <si>
-    <t>us10.py</t>
-  </si>
-  <si>
-    <t>us10.checkIndividuals</t>
-  </si>
-  <si>
-    <t>44-56</t>
-  </si>
-  <si>
-    <t>157-163</t>
-  </si>
-  <si>
-    <t>us15.py</t>
-  </si>
-  <si>
-    <t>us15.checkFewerThan15</t>
-  </si>
-  <si>
-    <t>lines 4-15</t>
-  </si>
-  <si>
-    <t>us21.py</t>
-  </si>
-  <si>
-    <t>us21.checkGenderForRole</t>
-  </si>
-  <si>
-    <t>98-106</t>
-  </si>
-  <si>
-    <t>testGenderForRole</t>
-  </si>
-  <si>
-    <t>testUS10</t>
-  </si>
-  <si>
-    <t>141-146</t>
-  </si>
-  <si>
-    <t>us22.py</t>
-  </si>
-  <si>
-    <t>us22.uniqueIDs</t>
-  </si>
-  <si>
-    <t>Lines 6-39</t>
-  </si>
-  <si>
-    <t>us26.py</t>
-  </si>
-  <si>
-    <t>us26.corrEntries</t>
-  </si>
-  <si>
-    <t>Lines 9-50</t>
-  </si>
-  <si>
-    <t>us31.py</t>
-  </si>
-  <si>
-    <t>us31.checkForLivingSingle</t>
-  </si>
-  <si>
-    <t>Lines 6-14</t>
-  </si>
-  <si>
-    <t>testUS31</t>
-  </si>
-  <si>
-    <t>147-155</t>
-  </si>
-  <si>
-    <t>us35.py</t>
-  </si>
-  <si>
-    <t>us35.RecentBirths</t>
-  </si>
-  <si>
-    <t>134-147</t>
-  </si>
-  <si>
-    <t>testRecentBirths</t>
-  </si>
-  <si>
-    <t>136-139</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1244,8 +1314,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1261,12 +1329,10 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1300,20 +1366,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1323,39 +1389,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1436,10 +1503,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1447,7 +1513,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1477,14 +1542,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1494,22 +1553,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,38 +1580,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3882-40DC-9AC2-16AA8C3FEC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1561,20 +1612,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="70594587"/>
-        <c:axId val="69682197"/>
+        <c:axId val="344345464"/>
+        <c:axId val="344433960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70594587"/>
+        <c:axId val="344345464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1599,18 +1646,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69682197"/>
+        <c:crossAx val="344433960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69682197"/>
+        <c:axId val="344433960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1623,8 +1669,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1649,7 +1693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70594587"/>
+        <c:crossAx val="344345464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,10 +1727,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1694,7 +1737,6 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1724,14 +1766,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1767,29 +1803,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-657E-4E26-B70C-DF82EB151CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1798,20 +1826,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="63599449"/>
-        <c:axId val="68853745"/>
+        <c:axId val="344411272"/>
+        <c:axId val="344410552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63599449"/>
+        <c:axId val="344411272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1836,7 +1860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68853745"/>
+        <c:crossAx val="344410552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1844,11 +1868,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68853745"/>
+        <c:axId val="344410552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1861,8 +1884,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1887,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63599449"/>
+        <c:crossAx val="344411272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1940,7 +1961,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1997,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2103,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2190,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2277,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2383,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2470,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2562,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2640,7 +2661,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2817,141 +2838,141 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E12" activeCellId="1" sqref="I50 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>322</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>326</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
@@ -2961,43 +2982,47 @@
     <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D23"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" customWidth="1"/>
-    <col min="2" max="2" width="9.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3005,16 +3030,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3022,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3039,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3056,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3073,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3090,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3107,16 +3132,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3124,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3141,16 +3166,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3158,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3175,13 +3200,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3189,13 +3214,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3203,13 +3228,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3217,13 +3242,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3231,13 +3256,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3245,13 +3270,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3259,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3273,13 +3298,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3287,13 +3312,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3301,13 +3326,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3315,13 +3340,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3329,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3343,13 +3368,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3357,13 +3382,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3371,13 +3396,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>383</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3385,13 +3410,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3399,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3413,13 +3438,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3427,13 +3452,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3441,13 +3466,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3455,13 +3480,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3469,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3483,13 +3508,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3497,13 +3522,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3511,13 +3536,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3525,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3539,13 +3564,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3553,13 +3578,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3567,13 +3592,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3581,97 +3606,103 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" activeCellId="1" sqref="I50 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3687,7 +3718,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3712,7 +3743,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3737,7 +3768,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3762,7 +3793,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3786,55 +3817,60 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F3" activeCellId="1" sqref="I50 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3845,7 +3881,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3866,118 +3902,123 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:Q1"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.84375" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="13"/>
+    <col min="11" max="11" width="8.85546875" style="13"/>
     <col min="12" max="12" width="24" style="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="13" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="13" customWidth="1"/>
-    <col min="16" max="16" width="21.84375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="13" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3995,36 +4036,36 @@
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4042,10 +4083,10 @@
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
@@ -4054,16 +4095,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -4081,10 +4122,10 @@
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="18"/>
@@ -4093,16 +4134,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4120,10 +4161,10 @@
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18"/>
@@ -4132,16 +4173,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -4159,10 +4200,10 @@
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="18"/>
@@ -4171,16 +4212,16 @@
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4198,10 +4239,10 @@
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M7" s="18"/>
       <c r="O7" s="18"/>
@@ -4216,16 +4257,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4243,36 +4284,36 @@
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -4290,10 +4331,10 @@
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="M10" s="18"/>
       <c r="O10" s="18"/>
@@ -4302,16 +4343,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -4329,10 +4370,10 @@
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="M11" s="18"/>
       <c r="O11" s="18"/>
@@ -4341,16 +4382,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -4368,10 +4409,10 @@
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="M12" s="18"/>
       <c r="O12" s="18"/>
@@ -4384,16 +4425,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -4411,36 +4452,36 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4458,25 +4499,25 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4494,25 +4535,25 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -4530,10 +4571,10 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -4544,16 +4585,16 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -4571,36 +4612,36 @@
         <v>42056</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4618,24 +4659,24 @@
         <v>42056</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4653,24 +4694,24 @@
         <v>42056</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -4688,10 +4729,10 @@
         <v>42056</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="22" customHeight="1">
@@ -4701,16 +4742,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -4728,36 +4769,36 @@
         <v>42057</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -4775,24 +4816,24 @@
         <v>42057</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -4810,24 +4851,24 @@
         <v>42057</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -4845,10 +4886,10 @@
         <v>42057</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" customHeight="1">
@@ -4858,16 +4899,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -4885,36 +4926,36 @@
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -4929,24 +4970,24 @@
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -4961,24 +5002,24 @@
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -4993,10 +5034,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5007,16 +5048,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -5034,36 +5075,36 @@
         <v>42052</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -5081,27 +5122,27 @@
         <v>42052</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -5119,27 +5160,27 @@
         <v>42052</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -5157,13 +5198,13 @@
         <v>42052</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5173,16 +5214,16 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -5200,36 +5241,36 @@
         <v>42052</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -5247,24 +5288,24 @@
         <v>42052</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -5282,10 +5323,10 @@
         <v>42052</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5295,16 +5336,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -5322,36 +5363,36 @@
         <v>42051</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -5369,24 +5410,24 @@
         <v>42051</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -5404,24 +5445,24 @@
         <v>42051</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -5439,10 +5480,10 @@
         <v>42051</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5452,16 +5493,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E48">
         <v>40</v>
@@ -5479,36 +5520,36 @@
         <v>42051</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5526,24 +5567,24 @@
         <v>42051</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5561,10 +5602,10 @@
         <v>42051</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5575,7 +5616,7 @@
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5583,134 +5624,139 @@
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="21.07421875" customWidth="1"/>
-    <col min="13" max="13" width="13.07421875" customWidth="1"/>
-    <col min="14" max="14" width="2.765625" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="15.69140625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="17" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="22" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -5728,33 +5774,33 @@
         <v>42063</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>363</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P2" t="s">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>90</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -5769,21 +5815,21 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>363</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -5798,24 +5844,24 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>363</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="22" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -5826,10 +5872,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
-        <v>326</v>
+        <v>94</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -5840,10 +5886,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23" t="s">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -5854,16 +5900,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="22" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E10">
         <v>110</v>
@@ -5881,27 +5927,27 @@
         <v>42063</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>368</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="23" t="s">
-        <v>330</v>
+        <v>98</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -5916,21 +5962,21 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23" t="s">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>333</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -5945,10 +5991,10 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5956,16 +6002,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="22" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -5973,13 +6019,19 @@
       <c r="F14">
         <v>120</v>
       </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>120</v>
@@ -5987,19 +6039,25 @@
       <c r="F15">
         <v>120</v>
       </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="22" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E17">
         <v>130</v>
@@ -6007,335 +6065,401 @@
       <c r="F17">
         <v>120</v>
       </c>
+      <c r="G17">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="23" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>337</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>335</v>
       </c>
       <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>57</v>
+      </c>
+      <c r="H18">
         <v>50</v>
       </c>
-      <c r="F18">
-        <v>50</v>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="23" t="s">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>338</v>
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>335</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
+      <c r="G19">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
+      </c>
+      <c r="I21" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="A22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E22">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22" s="9">
-        <v>42063</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>370</v>
-      </c>
-      <c r="M22" t="s">
-        <v>371</v>
-      </c>
-      <c r="O22" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="23" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>343</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E23">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
         <v>70</v>
       </c>
-      <c r="G23">
+      <c r="I25" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="23">
+        <v>100</v>
+      </c>
+      <c r="F26" s="23">
+        <v>100</v>
+      </c>
+      <c r="G26" s="23">
+        <v>50</v>
+      </c>
+      <c r="H26" s="23">
+        <v>70</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="H23">
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9">
+        <v>42067</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="K23" t="s">
-        <v>369</v>
-      </c>
-      <c r="L23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>57</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-      <c r="K24" t="s">
-        <v>369</v>
-      </c>
-      <c r="L24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>110</v>
-      </c>
-      <c r="G26">
-        <v>39</v>
-      </c>
-      <c r="H26">
-        <v>70</v>
-      </c>
-      <c r="I26" s="9">
-        <v>42063</v>
-      </c>
-      <c r="K26" t="s">
-        <v>375</v>
-      </c>
-      <c r="L26" t="s">
-        <v>376</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="O26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>60</v>
-      </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
-      <c r="H27">
-        <v>35</v>
-      </c>
-      <c r="K27" t="s">
-        <v>375</v>
-      </c>
-      <c r="L27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="H28">
-        <v>35</v>
-      </c>
-      <c r="K28" t="s">
-        <v>375</v>
-      </c>
-      <c r="L28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>70</v>
-      </c>
-      <c r="I30" s="9">
-        <v>42063</v>
-      </c>
-      <c r="K30" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" t="s">
-        <v>379</v>
-      </c>
-      <c r="M30" t="s">
-        <v>380</v>
-      </c>
-      <c r="O30" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="23" customFormat="1">
-      <c r="A31" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="23">
-        <v>100</v>
-      </c>
-      <c r="F31" s="23">
-        <v>100</v>
-      </c>
-      <c r="G31" s="23">
-        <v>50</v>
-      </c>
-      <c r="H31" s="23">
-        <v>70</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="L31" t="s">
-        <v>379</v>
-      </c>
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="22" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E33">
         <v>80</v>
@@ -6353,33 +6477,33 @@
         <v>42063</v>
       </c>
       <c r="K33" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P33" t="s">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="Q33" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="23" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -6394,21 +6518,21 @@
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="L34" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="23" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>355</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -6423,21 +6547,21 @@
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="23" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>357</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E36" s="23">
         <v>20</v>
@@ -6452,24 +6576,24 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="22" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E38">
         <v>80</v>
@@ -6487,33 +6611,33 @@
         <v>42063</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="O38" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="P38" t="s">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="Q38" t="s">
-        <v>390</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="23" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>359</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -6528,21 +6652,21 @@
         <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="L39" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="23" t="s">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E40">
         <v>40</v>
@@ -6557,627 +6681,648 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C18" activeCellId="1" sqref="I50 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>284</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>287</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>288</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>357</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>291</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>292</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>294</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>295</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>383</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="195">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>302</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>303</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>304</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>305</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>306</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>312</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>319</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>320</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14280" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14280" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,1031 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="413">
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>187-190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines 6-62</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines 6-18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>192-200</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>140-169</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_dateBeforeCurrent</t>
+  </si>
+  <si>
+    <t>118-125</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>128-132</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>rkumar5@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshak10 </t>
+  </si>
+  <si>
+    <t>rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renjie </t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzhou10 </t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>testMultipleBirths</t>
+  </si>
+  <si>
+    <t>74-83</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>103-109</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>134-142</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>29-107</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store Spouses' Birthdays</t>
+  </si>
+  <si>
+    <t>Compare to 14</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Check for multiple births</t>
+  </si>
+  <si>
+    <t>Compare to 5</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Check how many children are in one family</t>
+  </si>
+  <si>
+    <t>Compare to 15</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Check if spouses are siblings</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
   <si>
     <t>T21.01</t>
   </si>
@@ -278,1002 +1302,6 @@
   </si>
   <si>
     <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>T10.02</t>
-  </si>
-  <si>
-    <t>Store Spouses' Birthdays</t>
-  </si>
-  <si>
-    <t>Compare to 14</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Check for multiple births</t>
-  </si>
-  <si>
-    <t>Compare to 5</t>
-  </si>
-  <si>
-    <t>T15.01</t>
-  </si>
-  <si>
-    <t>T15.02</t>
-  </si>
-  <si>
-    <t>Check how many children are in one family</t>
-  </si>
-  <si>
-    <t>Compare to 15</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t>Check if spouses are siblings</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>us04.py</t>
-  </si>
-  <si>
-    <t>us04.marriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>29-104</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>134-142</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>us05.py</t>
-  </si>
-  <si>
-    <t>us05.marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>29-107</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>144-152</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>us06.py</t>
-  </si>
-  <si>
-    <t>us06.divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>25-105</t>
-  </si>
-  <si>
-    <t>testDivorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>111-116</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>us07.py</t>
-  </si>
-  <si>
-    <t>checkForLessThan150</t>
-  </si>
-  <si>
-    <t>32-58</t>
-  </si>
-  <si>
-    <t>testLessThan150</t>
-  </si>
-  <si>
-    <t>86-91</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>checkForLessThan151</t>
-  </si>
-  <si>
-    <t>32-59</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>checkForLessThan152</t>
-  </si>
-  <si>
-    <t>32-60</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>checkForLessThan153</t>
-  </si>
-  <si>
-    <t>32-61</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>testMultipleBirths</t>
-  </si>
-  <si>
-    <t>74-83</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>103-109</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>95-101</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meetings</t>
-  </si>
-  <si>
-    <t>Slack chat</t>
-  </si>
-  <si>
-    <t>Doodle Plannings</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Last minute integration</t>
-  </si>
-  <si>
-    <t>Modifying each other's .ged files without consent</t>
-  </si>
-  <si>
-    <t>Not asking for help right away</t>
-  </si>
-  <si>
-    <t>More communication if someone needs help</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t>2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t>3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t>3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t>4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date </t>
-  </si>
-  <si>
-    <t>us01.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t>140-169</t>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-  </si>
-  <si>
-    <t>test_dateBeforeCurrent</t>
-  </si>
-  <si>
-    <t>118-125</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birthdate</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>us02.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>150-153</t>
-  </si>
-  <si>
-    <t>test_birthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>128-132</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>us03.py</t>
-  </si>
-  <si>
-    <t>us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t>28-88</t>
-  </si>
-  <si>
-    <t>testbirthBeforeDeath</t>
-  </si>
-  <si>
-    <t>53-73</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t>chloequinto</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>Mengyuan</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t>stdlibrainbow</t>
-  </si>
-  <si>
-    <t>mjw</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Wisnewski</t>
-  </si>
-  <si>
-    <t>mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t>mwisnews</t>
-  </si>
-  <si>
-    <t>rk</t>
-  </si>
-  <si>
-    <t>Rakshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar </t>
-  </si>
-  <si>
-    <t>rkumar5@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakshak10 </t>
-  </si>
-  <si>
-    <t>rz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renjie </t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>rzhou4@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou10 </t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less than 150 years old</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1313,8 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="m/d"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1376,13 +1404,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1395,7 +1423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1407,7 +1435,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
@@ -1603,7 +1631,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1612,11 +1639,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="344345464"/>
-        <c:axId val="344433960"/>
+        <c:axId val="168874584"/>
+        <c:axId val="390045320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344345464"/>
+        <c:axId val="168874584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,14 +1673,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344433960"/>
+        <c:crossAx val="390045320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344433960"/>
+        <c:axId val="390045320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344345464"/>
+        <c:crossAx val="168874584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1817,7 +1844,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1826,11 +1852,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="344411272"/>
-        <c:axId val="344410552"/>
+        <c:axId val="389893704"/>
+        <c:axId val="389881992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344411272"/>
+        <c:axId val="389893704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344410552"/>
+        <c:crossAx val="389881992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1868,7 +1894,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344410552"/>
+        <c:axId val="389881992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344411272"/>
+        <c:crossAx val="389893704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1961,7 +1987,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2023,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2129,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2216,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2303,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2409,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2496,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2588,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2863,115 +2889,116 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>320</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -3010,19 +3037,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3030,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3047,16 +3074,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3064,16 +3091,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3081,16 +3108,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3098,16 +3125,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3115,16 +3142,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>345</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3132,16 +3159,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>347</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3149,16 +3176,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3166,16 +3193,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3183,16 +3210,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>353</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3200,13 +3227,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3214,13 +3241,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3228,13 +3255,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3242,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3256,13 +3283,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3270,13 +3297,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3284,13 +3311,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3298,13 +3325,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3312,13 +3339,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3326,13 +3353,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3340,13 +3367,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3354,13 +3381,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3368,13 +3395,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3382,13 +3409,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3396,13 +3423,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3410,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3424,13 +3451,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3438,13 +3465,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3452,13 +3479,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3466,13 +3493,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3480,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>395</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3494,13 +3521,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3508,13 +3535,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3522,13 +3549,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3536,13 +3563,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3550,13 +3577,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3564,13 +3591,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3578,13 +3605,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3592,13 +3619,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3606,20 +3633,19 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3649,60 +3675,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3718,7 +3744,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3743,7 +3769,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3768,7 +3794,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3793,7 +3819,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3850,27 +3876,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3881,7 +3907,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3902,21 +3928,20 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <drawing r:id="rId1"/>
@@ -3962,63 +3987,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -4036,36 +4061,36 @@
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4083,10 +4108,10 @@
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
@@ -4095,16 +4120,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -4122,10 +4147,10 @@
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="18"/>
@@ -4134,16 +4159,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4161,10 +4186,10 @@
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18"/>
@@ -4173,16 +4198,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -4200,10 +4225,10 @@
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="18"/>
@@ -4212,16 +4237,16 @@
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4239,10 +4264,10 @@
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="M7" s="18"/>
       <c r="O7" s="18"/>
@@ -4257,16 +4282,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4284,36 +4309,36 @@
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -4331,10 +4356,10 @@
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="M10" s="18"/>
       <c r="O10" s="18"/>
@@ -4343,16 +4368,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -4370,10 +4395,10 @@
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="M11" s="18"/>
       <c r="O11" s="18"/>
@@ -4382,16 +4407,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -4409,10 +4434,10 @@
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="M12" s="18"/>
       <c r="O12" s="18"/>
@@ -4425,16 +4450,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -4452,36 +4477,36 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4499,25 +4524,25 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4535,25 +4560,25 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -4571,10 +4596,10 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -4585,16 +4610,16 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -4612,36 +4637,36 @@
         <v>42056</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="O19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="Q19" s="13" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4659,24 +4684,24 @@
         <v>42056</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4694,24 +4719,24 @@
         <v>42056</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -4729,10 +4754,10 @@
         <v>42056</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="22" customHeight="1">
@@ -4742,16 +4767,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -4769,36 +4794,36 @@
         <v>42057</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -4816,24 +4841,24 @@
         <v>42057</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -4851,24 +4876,24 @@
         <v>42057</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -4886,10 +4911,10 @@
         <v>42057</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" customHeight="1">
@@ -4899,16 +4924,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>345</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -4926,36 +4951,36 @@
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -4970,24 +4995,24 @@
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -5002,24 +5027,24 @@
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -5034,10 +5059,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5048,16 +5073,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -5075,36 +5100,36 @@
         <v>42052</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -5122,27 +5147,27 @@
         <v>42052</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -5160,27 +5185,27 @@
         <v>42052</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -5198,13 +5223,13 @@
         <v>42052</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5214,16 +5239,16 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>353</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -5241,36 +5266,36 @@
         <v>42052</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -5288,24 +5313,24 @@
         <v>42052</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -5323,10 +5348,10 @@
         <v>42052</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5336,16 +5361,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -5363,36 +5388,36 @@
         <v>42051</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -5410,24 +5435,24 @@
         <v>42051</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -5445,24 +5470,24 @@
         <v>42051</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -5480,10 +5505,10 @@
         <v>42051</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5493,16 +5518,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E48">
         <v>40</v>
@@ -5520,36 +5545,36 @@
         <v>42051</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5567,24 +5592,24 @@
         <v>42051</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5602,10 +5627,10 @@
         <v>42051</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5616,7 +5641,7 @@
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5624,48 +5649,47 @@
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -5680,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
@@ -5699,64 +5723,64 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="17" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="22" t="s">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -5774,33 +5798,33 @@
         <v>42063</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="O2" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -5815,21 +5839,21 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -5844,24 +5868,24 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="22" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -5872,10 +5896,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -5886,10 +5910,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -5900,16 +5924,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="22" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>110</v>
@@ -5927,27 +5951,27 @@
         <v>42063</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="O10" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="23" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -5962,21 +5986,21 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -5991,10 +6015,10 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6002,62 +6026,92 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="22" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>120</v>
+        <v>180</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="I14" s="9">
+        <v>42072</v>
       </c>
       <c r="K14" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" t="s">
         <v>65</v>
-      </c>
-      <c r="L14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>103</v>
+        <v>329</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>180</v>
+      </c>
+      <c r="G15">
+        <v>70</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="22" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E17">
         <v>130</v>
@@ -6075,33 +6129,33 @@
         <v>42063</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="O17" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="23" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -6116,21 +6170,21 @@
         <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="23" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>65</v>
@@ -6145,24 +6199,24 @@
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="22" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6180,27 +6234,27 @@
         <v>42063</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="O21" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="23" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E22">
         <v>60</v>
@@ -6215,21 +6269,21 @@
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="23" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -6244,24 +6298,24 @@
         <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="22" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -6279,28 +6333,28 @@
         <v>42063</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="O25" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E26" s="23">
         <v>100</v>
@@ -6317,10 +6371,10 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
@@ -6330,16 +6384,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="26" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="E28">
         <v>80</v>
@@ -6357,27 +6411,33 @@
         <v>42067</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>400</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>402</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>391</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -6391,16 +6451,25 @@
       <c r="H29">
         <v>10</v>
       </c>
+      <c r="I29" s="9">
+        <v>42067</v>
+      </c>
+      <c r="K29" t="s">
+        <v>399</v>
+      </c>
+      <c r="L29" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="E30">
         <v>30</v>
@@ -6414,17 +6483,26 @@
       <c r="H30">
         <v>10</v>
       </c>
+      <c r="I30" s="9">
+        <v>42067</v>
+      </c>
+      <c r="K30" t="s">
+        <v>399</v>
+      </c>
+      <c r="L30" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="31" spans="1:17" s="23" customFormat="1">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -6438,10 +6516,16 @@
       <c r="H31">
         <v>10</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" s="9">
+        <v>42067</v>
+      </c>
       <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="K31" t="s">
+        <v>399</v>
+      </c>
+      <c r="L31" t="s">
+        <v>400</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -6450,16 +6534,16 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="22" t="s">
-        <v>370</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E33">
         <v>80</v>
@@ -6477,33 +6561,33 @@
         <v>42063</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="O33" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="Q33" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="23" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -6518,21 +6602,21 @@
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="23" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="D35" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -6547,21 +6631,21 @@
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="23" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E36" s="23">
         <v>20</v>
@@ -6576,24 +6660,24 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="22" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E38">
         <v>80</v>
@@ -6611,33 +6695,33 @@
         <v>42063</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="Q38" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="23" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="D39" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -6652,21 +6736,21 @@
         <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="23" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="E40">
         <v>40</v>
@@ -6681,10 +6765,10 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +6788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="I50 C1"/>
     </sheetView>
   </sheetViews>
@@ -6715,31 +6799,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6769,31 +6853,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6826,493 +6910,493 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>51</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>25</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>72</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>27</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>353</v>
+        <v>9</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
-        <v>404</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>61</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -35,192 +35,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="413">
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less than 150 years old</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="423">
+  <si>
+    <t>us21.checkGenderForRole</t>
+  </si>
+  <si>
+    <t>98-106</t>
+  </si>
+  <si>
+    <t>testGenderForRole</t>
+  </si>
+  <si>
+    <t>testUS10</t>
+  </si>
+  <si>
+    <t>141-146</t>
+  </si>
+  <si>
+    <t>us22.py</t>
+  </si>
+  <si>
+    <t>us22.uniqueIDs</t>
+  </si>
+  <si>
+    <t>Lines 6-39</t>
+  </si>
+  <si>
+    <t>us26.py</t>
+  </si>
+  <si>
+    <t>us26.corrEntries</t>
+  </si>
+  <si>
+    <t>Lines 9-50</t>
+  </si>
+  <si>
+    <t>us31.py</t>
+  </si>
+  <si>
+    <t>us31.checkForLivingSingle</t>
+  </si>
+  <si>
+    <t>Lines 6-14</t>
+  </si>
+  <si>
+    <t>testUS31</t>
+  </si>
+  <si>
+    <t>147-155</t>
+  </si>
+  <si>
+    <t>us35.py</t>
+  </si>
+  <si>
+    <t>us35.RecentBirths</t>
+  </si>
+  <si>
+    <t>134-147</t>
+  </si>
+  <si>
+    <t>testRecentBirths</t>
+  </si>
+  <si>
+    <t>136-139</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>List living married</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if living</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store to list</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rk</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Done</t>
@@ -231,6 +140,1086 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us30.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us30.checkForLivingMarried</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.siblingsCantMarry</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>lines 6-43</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us14.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us14.checkForMoreThan5Sibs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>165-168</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>182-185</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS26</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>172-175</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>177-180</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store Spouses' Birthdays</t>
+  </si>
+  <si>
+    <t>Compare to 14</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Check for multiple births</t>
+  </si>
+  <si>
+    <t>Compare to 5</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Check how many children are in one family</t>
+  </si>
+  <si>
+    <t>Compare to 15</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Check if spouses are siblings</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>Check role in relationship</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Check if right gender</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check for duplicates</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Check corresponding entries</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>Check if living</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>Check if married</t>
+  </si>
+  <si>
+    <t>T31.03</t>
+  </si>
+  <si>
+    <t>Store to list</t>
+  </si>
+  <si>
+    <t>T35.01</t>
+  </si>
+  <si>
+    <t>Check if birth date close to current</t>
+  </si>
+  <si>
+    <t>T35.02</t>
+  </si>
+  <si>
+    <t>Store date</t>
+  </si>
+  <si>
+    <t>us10.py</t>
+  </si>
+  <si>
+    <t>us10.checkIndividuals</t>
+  </si>
+  <si>
+    <t>44-56</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>us15.py</t>
+  </si>
+  <si>
+    <t>us15.checkFewerThan15</t>
+  </si>
+  <si>
+    <t>lines 4-15</t>
+  </si>
+  <si>
+    <t>us21.py</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>134-142</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>29-107</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>128-132</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>rkumar5@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshak10 </t>
+  </si>
+  <si>
+    <t>rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renjie </t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzhou10 </t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>testMultipleBirths</t>
+  </si>
+  <si>
+    <t>74-83</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>103-109</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>testUS18</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -354,954 +1343,6 @@
   </si>
   <si>
     <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>us02.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>150-153</t>
-  </si>
-  <si>
-    <t>test_birthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>128-132</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>us03.py</t>
-  </si>
-  <si>
-    <t>us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t>28-88</t>
-  </si>
-  <si>
-    <t>testbirthBeforeDeath</t>
-  </si>
-  <si>
-    <t>53-73</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t>chloequinto</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>Mengyuan</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t>stdlibrainbow</t>
-  </si>
-  <si>
-    <t>mjw</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Wisnewski</t>
-  </si>
-  <si>
-    <t>mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t>mwisnews</t>
-  </si>
-  <si>
-    <t>rk</t>
-  </si>
-  <si>
-    <t>Rakshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar </t>
-  </si>
-  <si>
-    <t>rkumar5@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakshak10 </t>
-  </si>
-  <si>
-    <t>rz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renjie </t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>rzhou4@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou10 </t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>checkForLessThan153</t>
-  </si>
-  <si>
-    <t>32-61</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>testMultipleBirths</t>
-  </si>
-  <si>
-    <t>74-83</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>103-109</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>95-101</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meetings</t>
-  </si>
-  <si>
-    <t>Slack chat</t>
-  </si>
-  <si>
-    <t>Doodle Plannings</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Last minute integration</t>
-  </si>
-  <si>
-    <t>Modifying each other's .ged files without consent</t>
-  </si>
-  <si>
-    <t>Not asking for help right away</t>
-  </si>
-  <si>
-    <t>More communication if someone needs help</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>us04.py</t>
-  </si>
-  <si>
-    <t>us04.marriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>29-104</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>134-142</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>us05.py</t>
-  </si>
-  <si>
-    <t>us05.marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>29-107</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>144-152</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>us06.py</t>
-  </si>
-  <si>
-    <t>us06.divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>25-105</t>
-  </si>
-  <si>
-    <t>testDivorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>111-116</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>us07.py</t>
-  </si>
-  <si>
-    <t>checkForLessThan150</t>
-  </si>
-  <si>
-    <t>32-58</t>
-  </si>
-  <si>
-    <t>testLessThan150</t>
-  </si>
-  <si>
-    <t>86-91</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>checkForLessThan151</t>
-  </si>
-  <si>
-    <t>32-59</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>checkForLessThan152</t>
-  </si>
-  <si>
-    <t>32-60</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>T10.02</t>
-  </si>
-  <si>
-    <t>Store Spouses' Birthdays</t>
-  </si>
-  <si>
-    <t>Compare to 14</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Check for multiple births</t>
-  </si>
-  <si>
-    <t>Compare to 5</t>
-  </si>
-  <si>
-    <t>T15.01</t>
-  </si>
-  <si>
-    <t>T15.02</t>
-  </si>
-  <si>
-    <t>Check how many children are in one family</t>
-  </si>
-  <si>
-    <t>Compare to 15</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t>Check if spouses are siblings</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>T21.01</t>
-  </si>
-  <si>
-    <t>Check role in relationship</t>
-  </si>
-  <si>
-    <t>T21.02</t>
-  </si>
-  <si>
-    <t>Check if right gender</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store IDs</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check for duplicates</t>
-  </si>
-  <si>
-    <t>T26.01</t>
-  </si>
-  <si>
-    <t>Check corresponding entries</t>
-  </si>
-  <si>
-    <t>T31.01</t>
-  </si>
-  <si>
-    <t>Check if living</t>
-  </si>
-  <si>
-    <t>T31.02</t>
-  </si>
-  <si>
-    <t>Check if married</t>
-  </si>
-  <si>
-    <t>T31.03</t>
-  </si>
-  <si>
-    <t>Store to list</t>
-  </si>
-  <si>
-    <t>T35.01</t>
-  </si>
-  <si>
-    <t>Check if birth date close to current</t>
-  </si>
-  <si>
-    <t>T35.02</t>
-  </si>
-  <si>
-    <t>Store date</t>
-  </si>
-  <si>
-    <t>us10.py</t>
-  </si>
-  <si>
-    <t>us10.checkIndividuals</t>
-  </si>
-  <si>
-    <t>44-56</t>
-  </si>
-  <si>
-    <t>157-163</t>
-  </si>
-  <si>
-    <t>us15.py</t>
-  </si>
-  <si>
-    <t>us15.checkFewerThan15</t>
-  </si>
-  <si>
-    <t>lines 4-15</t>
-  </si>
-  <si>
-    <t>us21.py</t>
-  </si>
-  <si>
-    <t>us21.checkGenderForRole</t>
-  </si>
-  <si>
-    <t>98-106</t>
-  </si>
-  <si>
-    <t>testGenderForRole</t>
-  </si>
-  <si>
-    <t>testUS10</t>
-  </si>
-  <si>
-    <t>141-146</t>
-  </si>
-  <si>
-    <t>us22.py</t>
-  </si>
-  <si>
-    <t>us22.uniqueIDs</t>
-  </si>
-  <si>
-    <t>Lines 6-39</t>
-  </si>
-  <si>
-    <t>us26.py</t>
-  </si>
-  <si>
-    <t>us26.corrEntries</t>
-  </si>
-  <si>
-    <t>Lines 9-50</t>
-  </si>
-  <si>
-    <t>us31.py</t>
-  </si>
-  <si>
-    <t>us31.checkForLivingSingle</t>
-  </si>
-  <si>
-    <t>Lines 6-14</t>
-  </si>
-  <si>
-    <t>testUS31</t>
-  </si>
-  <si>
-    <t>147-155</t>
-  </si>
-  <si>
-    <t>us35.py</t>
-  </si>
-  <si>
-    <t>us35.RecentBirths</t>
-  </si>
-  <si>
-    <t>134-147</t>
-  </si>
-  <si>
-    <t>testRecentBirths</t>
-  </si>
-  <si>
-    <t>136-139</t>
-  </si>
-  <si>
-    <t>T30.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>List living married</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if living</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if married</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store to list</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rk</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us30.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us30.checkForLivingMarried</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>US30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.siblingsCantMarry</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>US30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>List living married</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
   </si>
 </sst>
 </file>
@@ -1639,11 +1680,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="168874584"/>
-        <c:axId val="390045320"/>
+        <c:axId val="344335944"/>
+        <c:axId val="296877752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168874584"/>
+        <c:axId val="344335944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,14 +1714,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390045320"/>
+        <c:crossAx val="296877752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390045320"/>
+        <c:axId val="296877752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168874584"/>
+        <c:crossAx val="344335944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,11 +1893,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="389893704"/>
-        <c:axId val="389881992"/>
+        <c:axId val="357906920"/>
+        <c:axId val="357934936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389893704"/>
+        <c:axId val="357906920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389881992"/>
+        <c:crossAx val="357934936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1935,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389881992"/>
+        <c:axId val="357934936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389893704"/>
+        <c:crossAx val="357906920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1987,7 +2028,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2064,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2170,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2257,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2344,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2450,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2537,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2629,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2889,112 +2930,112 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3037,19 +3078,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3057,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3074,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3091,16 +3132,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3108,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3125,16 +3166,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3142,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3159,16 +3200,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3176,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3193,16 +3234,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3210,16 +3251,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3227,13 +3268,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3241,13 +3282,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3255,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3269,13 +3310,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3283,13 +3324,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3297,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3311,13 +3352,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3325,13 +3366,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3339,13 +3380,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3353,13 +3394,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3367,13 +3408,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3381,13 +3422,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3395,13 +3436,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3409,13 +3450,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3423,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>358</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3437,13 +3478,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3451,13 +3492,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3465,13 +3506,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3479,13 +3520,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3493,13 +3534,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3507,13 +3548,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3521,13 +3562,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3535,13 +3576,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3549,13 +3590,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3563,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3577,13 +3618,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3591,13 +3632,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3605,13 +3646,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3619,13 +3660,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3633,13 +3674,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3675,60 +3716,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>388</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>390</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>72</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>392</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3744,7 +3785,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3769,7 +3810,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3794,7 +3835,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3819,7 +3860,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3876,27 +3917,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>388</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>390</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>72</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3907,7 +3948,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -3928,20 +3969,21 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <drawing r:id="rId1"/>
@@ -3987,63 +4029,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>404</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>87</v>
+        <v>406</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>93</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>94</v>
+        <v>413</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -4061,36 +4103,36 @@
         <v>42058</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>97</v>
+        <v>416</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>100</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>420</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -4108,10 +4150,10 @@
         <v>42058</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
@@ -4120,16 +4162,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>422</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -4147,10 +4189,10 @@
         <v>42058</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M4" s="18"/>
       <c r="O4" s="18"/>
@@ -4159,16 +4201,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4186,10 +4228,10 @@
         <v>42058</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18"/>
@@ -4198,16 +4240,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -4225,10 +4267,10 @@
         <v>42058</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M6" s="18"/>
       <c r="O6" s="18"/>
@@ -4237,16 +4279,16 @@
     </row>
     <row r="7" spans="1:17" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4264,10 +4306,10 @@
         <v>42058</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="M7" s="18"/>
       <c r="O7" s="18"/>
@@ -4282,16 +4324,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4309,36 +4351,36 @@
         <v>42051</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -4356,10 +4398,10 @@
         <v>42051</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="M10" s="18"/>
       <c r="O10" s="18"/>
@@ -4368,16 +4410,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -4395,10 +4437,10 @@
         <v>42051</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="M11" s="18"/>
       <c r="O11" s="18"/>
@@ -4407,16 +4449,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -4434,10 +4476,10 @@
         <v>42051</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="M12" s="18"/>
       <c r="O12" s="18"/>
@@ -4450,16 +4492,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -4477,36 +4519,36 @@
         <v>41687</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -4524,25 +4566,25 @@
         <v>41687</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4560,25 +4602,25 @@
         <v>41687</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="17" customHeight="1">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -4596,10 +4638,10 @@
         <v>41687</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -4610,16 +4652,16 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -4637,36 +4679,36 @@
         <v>42056</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -4684,24 +4726,24 @@
         <v>42056</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -4719,24 +4761,24 @@
         <v>42056</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -4754,10 +4796,10 @@
         <v>42056</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="22" customHeight="1">
@@ -4767,16 +4809,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -4794,36 +4836,36 @@
         <v>42057</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -4841,24 +4883,24 @@
         <v>42057</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -4876,24 +4918,24 @@
         <v>42057</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -4911,10 +4953,10 @@
         <v>42057</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" customHeight="1">
@@ -4924,16 +4966,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -4951,36 +4993,36 @@
         <v>42057</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -4995,24 +5037,24 @@
         <v>50</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -5027,24 +5069,24 @@
         <v>50</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -5059,10 +5101,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5073,16 +5115,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -5100,36 +5142,36 @@
         <v>42052</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -5147,27 +5189,27 @@
         <v>42052</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>294</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -5185,27 +5227,27 @@
         <v>42052</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -5223,13 +5265,13 @@
         <v>42052</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5239,16 +5281,16 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -5266,36 +5308,36 @@
         <v>42052</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -5313,24 +5355,24 @@
         <v>42052</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -5348,10 +5390,10 @@
         <v>42052</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5361,16 +5403,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -5388,36 +5430,36 @@
         <v>42051</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -5435,24 +5477,24 @@
         <v>42051</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E45">
         <v>40</v>
@@ -5470,24 +5512,24 @@
         <v>42051</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -5505,10 +5547,10 @@
         <v>42051</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5518,16 +5560,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E48">
         <v>40</v>
@@ -5545,36 +5587,36 @@
         <v>42051</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -5592,24 +5634,24 @@
         <v>42051</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5627,10 +5669,10 @@
         <v>42051</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5641,7 +5683,7 @@
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="14" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5649,47 +5691,48 @@
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="14" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="14" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -5704,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13"/>
@@ -5713,7 +5756,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
@@ -5723,64 +5766,64 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>404</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>87</v>
+        <v>406</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="17" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>93</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="22" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -5798,33 +5841,33 @@
         <v>42063</v>
       </c>
       <c r="K2" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P2" t="s">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -5839,21 +5882,21 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -5868,24 +5911,24 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>315</v>
+        <v>242</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -5893,13 +5936,43 @@
       <c r="F6">
         <v>120</v>
       </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>42063</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>417</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>322</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -5907,13 +5980,28 @@
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>323</v>
+        <v>72</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -5921,19 +6009,31 @@
       <c r="F8">
         <v>60</v>
       </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="22" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E10">
         <v>110</v>
@@ -5951,27 +6051,33 @@
         <v>42063</v>
       </c>
       <c r="K10" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>365</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>417</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="23" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -5986,21 +6092,21 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -6015,10 +6121,10 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6026,16 +6132,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="22" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -6050,36 +6156,36 @@
         <v>200</v>
       </c>
       <c r="I14" s="9">
-        <v>42072</v>
+        <v>42067</v>
       </c>
       <c r="K14" t="s">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>66</v>
+        <v>385</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>383</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -6094,24 +6200,24 @@
         <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="22" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E17">
         <v>130</v>
@@ -6129,33 +6235,33 @@
         <v>42063</v>
       </c>
       <c r="K17" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P17" t="s">
-        <v>369</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="23" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -6170,21 +6276,21 @@
         <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="23" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E19">
         <v>65</v>
@@ -6199,24 +6305,24 @@
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="22" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6234,27 +6340,33 @@
         <v>42063</v>
       </c>
       <c r="K21" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>417</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="23" t="s">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>60</v>
@@ -6269,21 +6381,21 @@
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="23" t="s">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -6298,24 +6410,24 @@
         <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="22" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -6333,28 +6445,34 @@
         <v>42063</v>
       </c>
       <c r="K25" t="s">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>376</v>
+        <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>417</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>348</v>
+        <v>97</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E26" s="23">
         <v>100</v>
@@ -6371,10 +6489,10 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23" t="s">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>376</v>
+        <v>9</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
@@ -6384,16 +6502,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="26" t="s">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>80</v>
@@ -6411,33 +6529,33 @@
         <v>42067</v>
       </c>
       <c r="K28" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>400</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="O28" t="s">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>68</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -6455,21 +6573,21 @@
         <v>42067</v>
       </c>
       <c r="K29" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="L29" t="s">
-        <v>400</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>30</v>
@@ -6487,22 +6605,22 @@
         <v>42067</v>
       </c>
       <c r="K30" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>400</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="23" customFormat="1">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>398</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -6521,10 +6639,10 @@
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>400</v>
+        <v>33</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -6534,16 +6652,16 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="22" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E33">
         <v>80</v>
@@ -6561,33 +6679,33 @@
         <v>42063</v>
       </c>
       <c r="K33" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P33" t="s">
-        <v>381</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="s">
-        <v>382</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="23" t="s">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E34">
         <v>30</v>
@@ -6602,21 +6720,21 @@
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="23" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -6631,21 +6749,21 @@
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="23" t="s">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E36" s="23">
         <v>20</v>
@@ -6660,24 +6778,24 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="22" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E38">
         <v>80</v>
@@ -6695,33 +6813,33 @@
         <v>42063</v>
       </c>
       <c r="K38" t="s">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="P38" t="s">
-        <v>386</v>
+        <v>19</v>
       </c>
       <c r="Q38" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="23" t="s">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -6736,21 +6854,21 @@
         <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="23" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="E40">
         <v>40</v>
@@ -6765,10 +6883,10 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6799,31 +6917,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>404</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>87</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6853,31 +6971,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>404</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>87</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6910,497 +7028,496 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>334</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>335</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>87</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>255</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>256</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>358</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>410</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>411</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>412</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>307</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>313</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/TeamXXReport.xlsx
+++ b/TeamXXReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr date1904="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Desktop\SSW_555_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14280" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14280" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="130407" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +40,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="467">
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>Check role in relationship</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Check if right gender</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check for duplicates</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>Check corresponding entries</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>Check if living</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>Check if married</t>
+  </si>
+  <si>
+    <t>T31.03</t>
+  </si>
+  <si>
+    <t>Store to list</t>
+  </si>
+  <si>
+    <t>T35.01</t>
+  </si>
+  <si>
+    <t>Check if birth date close to current</t>
+  </si>
+  <si>
+    <t>T35.02</t>
+  </si>
+  <si>
+    <t>Store date</t>
+  </si>
+  <si>
+    <t>us10.py</t>
+  </si>
+  <si>
+    <t>us10.checkIndividuals</t>
+  </si>
+  <si>
+    <t>44-56</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>us15.py</t>
+  </si>
+  <si>
+    <t>us15.checkFewerThan15</t>
+  </si>
+  <si>
+    <t>lines 4-15</t>
+  </si>
+  <si>
+    <t>us21.py</t>
+  </si>
   <si>
     <t>us21.checkGenderForRole</t>
   </si>
@@ -156,1208 +245,1247 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living married</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>Store Spouses' Birthdays</t>
+  </si>
+  <si>
+    <t>Compare to 14</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>Check for multiple births</t>
+  </si>
+  <si>
+    <t>Compare to 5</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Check how many children are in one family</t>
+  </si>
+  <si>
+    <t>Compare to 15</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Check if spouses are siblings</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>us04.py</t>
+  </si>
+  <si>
+    <t>us04.marriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>29-104</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDivorce</t>
+  </si>
+  <si>
+    <t>134-142</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>us05.py</t>
+  </si>
+  <si>
+    <t>us05.marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>29-107</t>
+  </si>
+  <si>
+    <t>testmarriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>144-152</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Compare marriage date to death date</t>
+  </si>
+  <si>
+    <t>us06.py</t>
+  </si>
+  <si>
+    <t>us06.divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>testDivorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>111-116</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare divorce date and death date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07 </t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>us07.py</t>
+  </si>
+  <si>
+    <t>checkForLessThan150</t>
+  </si>
+  <si>
+    <t>32-58</t>
+  </si>
+  <si>
+    <t>testLessThan150</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>checkForLessThan151</t>
+  </si>
+  <si>
+    <t>32-59</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>checkForLessThan152</t>
+  </si>
+  <si>
+    <t>32-60</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
+  </si>
+  <si>
+    <t>checkForLessThan153</t>
+  </si>
+  <si>
+    <t>32-61</t>
+  </si>
+  <si>
+    <t>us32.py</t>
+  </si>
+  <si>
+    <t>checkMultipleBirths</t>
+  </si>
+  <si>
+    <t>24-86</t>
+  </si>
+  <si>
+    <t>testMultipleBirths</t>
+  </si>
+  <si>
+    <t>74-83</t>
+  </si>
+  <si>
+    <t>T32.01</t>
+  </si>
+  <si>
+    <t>Store birth dates</t>
+  </si>
+  <si>
+    <t>T32.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare birth dates </t>
+  </si>
+  <si>
+    <t>us16.py</t>
+  </si>
+  <si>
+    <t>sameLastName</t>
+  </si>
+  <si>
+    <t>9-51</t>
+  </si>
+  <si>
+    <t>testNames</t>
+  </si>
+  <si>
+    <t>103-109</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>Check if the person is male</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>Store last name</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>Raise error if two names are not similar</t>
+  </si>
+  <si>
+    <t>us29.py</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>testDeaths</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Check if the person is deceased</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store name if deceased</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meetings</t>
+  </si>
+  <si>
+    <t>Slack chat</t>
+  </si>
+  <si>
+    <t>Doodle Plannings</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Last minute integration</t>
+  </si>
+  <si>
+    <t>Modifying each other's .ged files without consent</t>
+  </si>
+  <si>
+    <t>Not asking for help right away</t>
+  </si>
+  <si>
+    <t>More communication if someone needs help</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>2/11/2019 (Start)</t>
+  </si>
+  <si>
+    <t>2/25/2019 (Sprint 1)</t>
+  </si>
+  <si>
+    <t>3/11/2019 (Sprint 2)</t>
+  </si>
+  <si>
+    <t>3/25/2019 (Sprint 3)</t>
+  </si>
+  <si>
+    <t>4/8/2019 (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date </t>
+  </si>
+  <si>
+    <t>us01.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>140-169</t>
+  </si>
+  <si>
+    <t>unit_test.py</t>
+  </si>
+  <si>
+    <t>test_dateBeforeCurrent</t>
+  </si>
+  <si>
+    <t>118-125</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store birthdate</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date </t>
+  </si>
+  <si>
+    <t>T01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare dates to current date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02 </t>
+  </si>
+  <si>
+    <t>us02.py</t>
+  </si>
+  <si>
+    <t>BirthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>test_birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>128-132</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>us03.py</t>
+  </si>
+  <si>
+    <t>us03.birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>28-88</t>
+  </si>
+  <si>
+    <t>testbirthBeforeDeath</t>
+  </si>
+  <si>
+    <t>53-73</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth date to death date</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>cquinto@stevens.edu</t>
+  </si>
+  <si>
+    <t>chloequinto</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>Mengyuan</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>mwang60@stevens.edu</t>
+  </si>
+  <si>
+    <t>stdlibrainbow</t>
+  </si>
+  <si>
+    <t>mjw</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Wisnewski</t>
+  </si>
+  <si>
+    <t>mwisnews@stevens.edu</t>
+  </si>
+  <si>
+    <t>mwisnews</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>Rakshak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>rkumar5@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakshak10 </t>
+  </si>
+  <si>
+    <t>rz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renjie </t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>rzhou4@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzhou10 </t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/chloequinto/SSW_555_Project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>testUS15</t>
+  </si>
+  <si>
+    <t>182-185</t>
+  </si>
+  <si>
+    <t>us14.py</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us14.checkForMoreThan5Sibs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines 6-43</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>165-168</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>us18.siblingsCantMarry</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines 6-62</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>187-190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.01</t>
+  </si>
+  <si>
+    <t>Check Marriage Date</t>
+  </si>
+  <si>
+    <t>T08.02</t>
+  </si>
+  <si>
+    <t>Check Child Birth Date</t>
+  </si>
+  <si>
+    <t>T08.03</t>
+  </si>
+  <si>
+    <t>Compare Dates</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>T09.03</t>
+  </si>
+  <si>
+    <t>Check Birth Date</t>
+  </si>
+  <si>
+    <t>Check Death Date of Parents</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>Check Parent's Age</t>
+  </si>
+  <si>
+    <t>T28.01</t>
+  </si>
+  <si>
+    <t>Get Siblings</t>
+  </si>
+  <si>
+    <t>T28.02</t>
+  </si>
+  <si>
+    <t>Compare Birth Dates</t>
+  </si>
+  <si>
+    <t>T33.01</t>
+  </si>
+  <si>
+    <t>Check if Parents are Alive</t>
+  </si>
+  <si>
+    <t>T33.02</t>
+  </si>
+  <si>
+    <t>Append to List</t>
+  </si>
+  <si>
+    <t>T36.01</t>
+  </si>
+  <si>
+    <t>T36.02</t>
+  </si>
+  <si>
+    <t>Check Death Dates</t>
+  </si>
+  <si>
+    <t>List Within Last 30 Days</t>
+  </si>
+  <si>
+    <t>T38.01</t>
+  </si>
+  <si>
+    <t>T38.02</t>
+  </si>
+  <si>
+    <t>Check Birth Dates</t>
+  </si>
+  <si>
+    <t>List Birthdays Within the Next 30 Days</t>
+  </si>
+  <si>
+    <t>T40.01</t>
+  </si>
+  <si>
+    <t>T40.02</t>
+  </si>
+  <si>
+    <t>Print Error Line</t>
+  </si>
+  <si>
+    <t>Check For Error Line in Input</t>
+  </si>
+  <si>
+    <t>T41.01</t>
+  </si>
+  <si>
+    <t>T41.02</t>
+  </si>
+  <si>
+    <t>Implement Dates Without Days</t>
+  </si>
+  <si>
+    <t>Implement Dates Without Months</t>
+  </si>
+  <si>
+    <t>T42.01</t>
+  </si>
+  <si>
+    <t>Check if Date is Legit</t>
+  </si>
+  <si>
+    <t>T42.02</t>
+  </si>
+  <si>
+    <t>Pushing to Master before Merge</t>
+  </si>
+  <si>
+    <t>Not inserting Unit Tests right away</t>
+  </si>
+  <si>
+    <t>Fixing broken code right away</t>
+  </si>
+  <si>
+    <t>Setting Hard Deadlines for User Stories</t>
+  </si>
+  <si>
+    <t>testUS22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>172-175</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUS26</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>177-180</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines 6-18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>testUS30</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>US30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us18.siblingsCantMarry</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>US30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>List living married</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>lines 6-43</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us14.py</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>us14.checkForMoreThan5Sibs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS15</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>165-168</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>182-185</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS22</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS26</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>172-175</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>177-180</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>T10.02</t>
-  </si>
-  <si>
-    <t>Store Spouses' Birthdays</t>
-  </si>
-  <si>
-    <t>Compare to 14</t>
-  </si>
-  <si>
-    <t>T14.01</t>
-  </si>
-  <si>
-    <t>T14.02</t>
-  </si>
-  <si>
-    <t>Check for multiple births</t>
-  </si>
-  <si>
-    <t>Compare to 5</t>
-  </si>
-  <si>
-    <t>T15.01</t>
-  </si>
-  <si>
-    <t>T15.02</t>
-  </si>
-  <si>
-    <t>Check how many children are in one family</t>
-  </si>
-  <si>
-    <t>Compare to 15</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t>Check if spouses are siblings</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>T21.01</t>
-  </si>
-  <si>
-    <t>Check role in relationship</t>
-  </si>
-  <si>
-    <t>T21.02</t>
-  </si>
-  <si>
-    <t>Check if right gender</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store IDs</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Check for duplicates</t>
-  </si>
-  <si>
-    <t>T26.01</t>
-  </si>
-  <si>
-    <t>Check corresponding entries</t>
-  </si>
-  <si>
-    <t>T31.01</t>
-  </si>
-  <si>
-    <t>Check if living</t>
-  </si>
-  <si>
-    <t>T31.02</t>
-  </si>
-  <si>
-    <t>Check if married</t>
-  </si>
-  <si>
-    <t>T31.03</t>
-  </si>
-  <si>
-    <t>Store to list</t>
-  </si>
-  <si>
-    <t>T35.01</t>
-  </si>
-  <si>
-    <t>Check if birth date close to current</t>
-  </si>
-  <si>
-    <t>T35.02</t>
-  </si>
-  <si>
-    <t>Store date</t>
-  </si>
-  <si>
-    <t>us10.py</t>
-  </si>
-  <si>
-    <t>us10.checkIndividuals</t>
-  </si>
-  <si>
-    <t>44-56</t>
-  </si>
-  <si>
-    <t>157-163</t>
-  </si>
-  <si>
-    <t>us15.py</t>
-  </si>
-  <si>
-    <t>us15.checkFewerThan15</t>
-  </si>
-  <si>
-    <t>lines 4-15</t>
-  </si>
-  <si>
-    <t>us21.py</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>us04.py</t>
-  </si>
-  <si>
-    <t>us04.marriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>29-104</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDivorce</t>
-  </si>
-  <si>
-    <t>134-142</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>us05.py</t>
-  </si>
-  <si>
-    <t>us05.marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>29-107</t>
-  </si>
-  <si>
-    <t>testmarriageBeforeDeath</t>
-  </si>
-  <si>
-    <t>144-152</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to death date</t>
-  </si>
-  <si>
-    <t>us06.py</t>
-  </si>
-  <si>
-    <t>us06.divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>25-105</t>
-  </si>
-  <si>
-    <t>testDivorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>111-116</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare divorce date and death date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07 </t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>us07.py</t>
-  </si>
-  <si>
-    <t>checkForLessThan150</t>
-  </si>
-  <si>
-    <t>32-58</t>
-  </si>
-  <si>
-    <t>testLessThan150</t>
-  </si>
-  <si>
-    <t>86-91</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>checkForLessThan151</t>
-  </si>
-  <si>
-    <t>32-59</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>checkForLessThan152</t>
-  </si>
-  <si>
-    <t>32-60</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth date and death date &lt; 150 </t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>Slack chat</t>
-  </si>
-  <si>
-    <t>Doodle Plannings</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Last minute integration</t>
-  </si>
-  <si>
-    <t>Modifying each other's .ged files without consent</t>
-  </si>
-  <si>
-    <t>Not asking for help right away</t>
-  </si>
-  <si>
-    <t>More communication if someone needs help</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>MJW</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store death date </t>
-  </si>
-  <si>
-    <t>T01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare dates to current date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02 </t>
-  </si>
-  <si>
-    <t>us02.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>150-153</t>
-  </si>
-  <si>
-    <t>test_birthBeforeMarriage</t>
-  </si>
-  <si>
-    <t>128-132</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>us03.py</t>
-  </si>
-  <si>
-    <t>us03.birthBeforeDeath</t>
-  </si>
-  <si>
-    <t>28-88</t>
-  </si>
-  <si>
-    <t>testbirthBeforeDeath</t>
-  </si>
-  <si>
-    <t>53-73</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth date to death date</t>
-  </si>
-  <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>cquinto@stevens.edu</t>
-  </si>
-  <si>
-    <t>chloequinto</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>Mengyuan</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>mwang60@stevens.edu</t>
-  </si>
-  <si>
-    <t>stdlibrainbow</t>
-  </si>
-  <si>
-    <t>mjw</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Wisnewski</t>
-  </si>
-  <si>
-    <t>mwisnews@stevens.edu</t>
-  </si>
-  <si>
-    <t>mwisnews</t>
-  </si>
-  <si>
-    <t>rk</t>
-  </si>
-  <si>
-    <t>Rakshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar </t>
-  </si>
-  <si>
-    <t>rkumar5@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakshak10 </t>
-  </si>
-  <si>
-    <t>rz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renjie </t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>rzhou4@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzhou10 </t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/chloequinto/SSW_555_Project</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>checkForLessThan153</t>
-  </si>
-  <si>
-    <t>32-61</t>
-  </si>
-  <si>
-    <t>us32.py</t>
-  </si>
-  <si>
-    <t>checkMultipleBirths</t>
-  </si>
-  <si>
-    <t>24-86</t>
-  </si>
-  <si>
-    <t>testMultipleBirths</t>
-  </si>
-  <si>
-    <t>74-83</t>
-  </si>
-  <si>
-    <t>T32.01</t>
-  </si>
-  <si>
-    <t>Store birth dates</t>
-  </si>
-  <si>
-    <t>T32.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare birth dates </t>
-  </si>
-  <si>
-    <t>us16.py</t>
-  </si>
-  <si>
-    <t>sameLastName</t>
-  </si>
-  <si>
-    <t>9-51</t>
-  </si>
-  <si>
-    <t>testNames</t>
-  </si>
-  <si>
-    <t>103-109</t>
-  </si>
-  <si>
-    <t>T16.01</t>
-  </si>
-  <si>
-    <t>Check if the person is male</t>
-  </si>
-  <si>
-    <t>T16.02</t>
-  </si>
-  <si>
-    <t>Store last name</t>
-  </si>
-  <si>
-    <t>T16.03</t>
-  </si>
-  <si>
-    <t>Raise error if two names are not similar</t>
-  </si>
-  <si>
-    <t>us29.py</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>testDeaths</t>
-  </si>
-  <si>
-    <t>95-101</t>
-  </si>
-  <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Check if the person is deceased</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store name if deceased</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meetings</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less than 150 years old</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUS18</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>187-190</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>lines 6-62</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>lines 6-18</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>192-200</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>2/11/2019 (Start)</t>
-  </si>
-  <si>
-    <t>2/25/2019 (Sprint 1)</t>
-  </si>
-  <si>
-    <t>3/11/2019 (Sprint 2)</t>
-  </si>
-  <si>
-    <t>3/25/2019 (Sprint 3)</t>
-  </si>
-  <si>
-    <t>4/8/2019 (Sprint 4)</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date </t>
-  </si>
-  <si>
-    <t>us01.py</t>
-  </si>
-  <si>
-    <t>BirthBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t>140-169</t>
-  </si>
-  <si>
-    <t>unit_test.py</t>
-  </si>
-  <si>
-    <t>test_dateBeforeCurrent</t>
-  </si>
-  <si>
-    <t>118-125</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birthdate</t>
-  </si>
-  <si>
-    <t>T01.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1409,6 +1537,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1437,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1445,13 +1584,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1464,7 +1603,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1476,7 +1615,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
@@ -1485,6 +1624,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1572,16 +1713,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1611,8 +1761,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1622,22 +1778,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,29 +1805,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3882-40DC-9AC2-16AA8C3FEC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1680,16 +1845,20 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="344335944"/>
-        <c:axId val="296877752"/>
+        <c:smooth val="0"/>
+        <c:axId val="344345464"/>
+        <c:axId val="344433960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344335944"/>
+        <c:axId val="344345464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1714,17 +1883,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296877752"/>
+        <c:crossAx val="344433960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296877752"/>
+        <c:axId val="344433960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1737,6 +1907,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1761,7 +1933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344335944"/>
+        <c:crossAx val="344345464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1795,16 +1967,25 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1834,8 +2015,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1871,20 +2058,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-657E-4E26-B70C-DF82EB151CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1893,16 +2092,20 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="357906920"/>
-        <c:axId val="357934936"/>
+        <c:smooth val="0"/>
+        <c:axId val="344411272"/>
+        <c:axId val="344410552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357906920"/>
+        <c:axId val="344411272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1927,7 +2130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357934936"/>
+        <c:crossAx val="344410552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,10 +2138,11 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357934936"/>
+        <c:axId val="344410552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1951,6 +2155,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1975,7 +2181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357906920"/>
+        <c:crossAx val="344411272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2028,7 +2234,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2270,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2376,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2463,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2550,7